--- a/data/negative_signals/Disease - Total occurrences (B-to-X) - Dorzolamide - all categories.xlsx
+++ b/data/negative_signals/Disease - Total occurrences (B-to-X) - Dorzolamide - all categories.xlsx
@@ -108,64 +108,64 @@
     <t>dorzolamide</t>
   </si>
   <si>
-    <t>121113233</t>
+    <t>62372494</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>39420032</t>
+  </si>
+  <si>
+    <t>is ingredient of</t>
+  </si>
+  <si>
+    <t>108574511</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>99137477</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>116397230</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>54035283</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>54718809</t>
   </si>
   <si>
     <t>is a</t>
   </si>
   <si>
-    <t>128785327</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>181039875</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>182604055</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>120377673</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>181039919</t>
+    <t>114830635</t>
+  </si>
+  <si>
+    <t>114830687</t>
   </si>
   <si>
     <t>is the same as</t>
   </si>
   <si>
-    <t>105771883</t>
-  </si>
-  <si>
-    <t>is ingredient of</t>
-  </si>
-  <si>
-    <t>165351321</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>174765607</t>
-  </si>
-  <si>
     <t>217103</t>
   </si>
   <si>
     <t>putative uncharacterized protein encoded by mir7-3hg (homo sapiens)</t>
   </si>
   <si>
-    <t>158260743</t>
+    <t>92074676</t>
   </si>
   <si>
     <t>721922</t>
@@ -174,7 +174,7 @@
     <t>cytochrome p450 3a4 (homo sapiens)</t>
   </si>
   <si>
-    <t>105771890</t>
+    <t>39420039</t>
   </si>
   <si>
     <t>2395904</t>
@@ -183,7 +183,7 @@
     <t>cytochrome p450 2c9 (homo sapiens)</t>
   </si>
   <si>
-    <t>105771891</t>
+    <t>39420040</t>
   </si>
   <si>
     <t>836626</t>
@@ -192,7 +192,7 @@
     <t>sodium chloride</t>
   </si>
   <si>
-    <t>141669324</t>
+    <t>75278775</t>
   </si>
   <si>
     <t>742928</t>
@@ -201,7 +201,16 @@
     <t>amino acids</t>
   </si>
   <si>
-    <t>110637274</t>
+    <t>44432222</t>
+  </si>
+  <si>
+    <t>5344509</t>
+  </si>
+  <si>
+    <t>oxygen</t>
+  </si>
+  <si>
+    <t>74345645</t>
   </si>
   <si>
     <t>614774</t>
@@ -210,16 +219,7 @@
     <t>nitric oxide</t>
   </si>
   <si>
-    <t>193444111</t>
-  </si>
-  <si>
-    <t>5344509</t>
-  </si>
-  <si>
-    <t>oxygen</t>
-  </si>
-  <si>
-    <t>140700975</t>
+    <t>127229593</t>
   </si>
   <si>
     <t>315968</t>
@@ -228,7 +228,7 @@
     <t>dexamethasone</t>
   </si>
   <si>
-    <t>191278259</t>
+    <t>125067994</t>
   </si>
   <si>
     <t>inhibits</t>
@@ -240,7 +240,7 @@
     <t>binding sites</t>
   </si>
   <si>
-    <t>158261017</t>
+    <t>92074915</t>
   </si>
   <si>
     <t>308570</t>
@@ -249,7 +249,7 @@
     <t>antioxidants</t>
   </si>
   <si>
-    <t>156289631</t>
+    <t>90057964</t>
   </si>
   <si>
     <t>2632572</t>
@@ -258,10 +258,10 @@
     <t>nitric oxide synthase, endothelial (homo sapiens)</t>
   </si>
   <si>
-    <t>138223837</t>
-  </si>
-  <si>
-    <t>187549486</t>
+    <t>71822382</t>
+  </si>
+  <si>
+    <t>121338733</t>
   </si>
   <si>
     <t>53391</t>
@@ -270,7 +270,7 @@
     <t>indomethacin</t>
   </si>
   <si>
-    <t>163391594</t>
+    <t>97183868</t>
   </si>
   <si>
     <t>5628940</t>
@@ -279,10 +279,10 @@
     <t>carbonic anhydrase 2 (homo sapiens)</t>
   </si>
   <si>
-    <t>69650863</t>
-  </si>
-  <si>
-    <t>67291104</t>
+    <t>3221907</t>
+  </si>
+  <si>
+    <t>885532</t>
   </si>
   <si>
     <t>3377529</t>
@@ -291,7 +291,7 @@
     <t>metabolite</t>
   </si>
   <si>
-    <t>141530407</t>
+    <t>75063936</t>
   </si>
   <si>
     <t>4041660</t>
@@ -300,7 +300,7 @@
     <t>carbon dioxide</t>
   </si>
   <si>
-    <t>140701043</t>
+    <t>74345743</t>
   </si>
   <si>
     <t>3097558</t>
@@ -309,7 +309,7 @@
     <t>human plasma</t>
   </si>
   <si>
-    <t>157482358</t>
+    <t>91300155</t>
   </si>
   <si>
     <t>4677815</t>
@@ -318,10 +318,10 @@
     <t>carbonic anhydrase 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>67299087</t>
-  </si>
-  <si>
-    <t>73743150</t>
+    <t>890201</t>
+  </si>
+  <si>
+    <t>7311643</t>
   </si>
   <si>
     <t>153796</t>
@@ -330,7 +330,7 @@
     <t>pharmacologic substance</t>
   </si>
   <si>
-    <t>105771885</t>
+    <t>39420034</t>
   </si>
   <si>
     <t>5176375</t>
@@ -339,7 +339,7 @@
     <t>adrenergic receptor</t>
   </si>
   <si>
-    <t>177084188</t>
+    <t>110856788</t>
   </si>
   <si>
     <t>352433</t>
@@ -348,7 +348,7 @@
     <t>endothelin-1 (homo sapiens)</t>
   </si>
   <si>
-    <t>188226765</t>
+    <t>122020950</t>
   </si>
   <si>
     <t>461347</t>
@@ -357,7 +357,7 @@
     <t>mixed function oxygenases</t>
   </si>
   <si>
-    <t>163627642</t>
+    <t>97430196</t>
   </si>
   <si>
     <t>222900</t>
@@ -366,7 +366,7 @@
     <t>electrolytes</t>
   </si>
   <si>
-    <t>175796511</t>
+    <t>109618106</t>
   </si>
   <si>
     <t>402156</t>
@@ -375,10 +375,10 @@
     <t>carbonic anhydrase 9 (homo sapiens)</t>
   </si>
   <si>
-    <t>67299634</t>
-  </si>
-  <si>
-    <t>69650862</t>
+    <t>891203</t>
+  </si>
+  <si>
+    <t>3221906</t>
   </si>
   <si>
     <t>5231409</t>
@@ -387,19 +387,19 @@
     <t>adrenergic beta-antagonists</t>
   </si>
   <si>
-    <t>161703579</t>
-  </si>
-  <si>
-    <t>176819984</t>
-  </si>
-  <si>
-    <t>175289980</t>
-  </si>
-  <si>
-    <t>159340157</t>
-  </si>
-  <si>
-    <t>122388029</t>
+    <t>95514984</t>
+  </si>
+  <si>
+    <t>109063186</t>
+  </si>
+  <si>
+    <t>110644808</t>
+  </si>
+  <si>
+    <t>56010613</t>
+  </si>
+  <si>
+    <t>93174720</t>
   </si>
   <si>
     <t>3816127</t>
@@ -408,7 +408,7 @@
     <t>sodium dodecyl sulfate</t>
   </si>
   <si>
-    <t>149174411</t>
+    <t>82797010</t>
   </si>
   <si>
     <t>3134759</t>
@@ -417,7 +417,7 @@
     <t>agent</t>
   </si>
   <si>
-    <t>170013425</t>
+    <t>103813101</t>
   </si>
   <si>
     <t>4035582</t>
@@ -426,7 +426,7 @@
     <t>isoenzymes</t>
   </si>
   <si>
-    <t>187635341</t>
+    <t>121425003</t>
   </si>
   <si>
     <t>55903</t>
@@ -435,10 +435,10 @@
     <t>melanins</t>
   </si>
   <si>
-    <t>182543356</t>
-  </si>
-  <si>
-    <t>182543264</t>
+    <t>116337008</t>
+  </si>
+  <si>
+    <t>116337078</t>
   </si>
   <si>
     <t>536133</t>
@@ -447,7 +447,7 @@
     <t>derivatives</t>
   </si>
   <si>
-    <t>169094616</t>
+    <t>102884263</t>
   </si>
   <si>
     <t>3815301</t>
@@ -456,22 +456,22 @@
     <t>pilocarpine</t>
   </si>
   <si>
-    <t>127003903</t>
-  </si>
-  <si>
-    <t>154620018</t>
-  </si>
-  <si>
-    <t>126998154</t>
-  </si>
-  <si>
-    <t>122385726</t>
-  </si>
-  <si>
-    <t>143172070</t>
-  </si>
-  <si>
-    <t>172542231</t>
+    <t>60581377</t>
+  </si>
+  <si>
+    <t>76716061</t>
+  </si>
+  <si>
+    <t>88455646</t>
+  </si>
+  <si>
+    <t>106322723</t>
+  </si>
+  <si>
+    <t>60586810</t>
+  </si>
+  <si>
+    <t>56007932</t>
   </si>
   <si>
     <t>4751867</t>
@@ -480,13 +480,13 @@
     <t>carbonate dehydratase</t>
   </si>
   <si>
-    <t>158260902</t>
-  </si>
-  <si>
-    <t>140701137</t>
-  </si>
-  <si>
-    <t>70260196</t>
+    <t>3830698</t>
+  </si>
+  <si>
+    <t>74345807</t>
+  </si>
+  <si>
+    <t>92074789</t>
   </si>
   <si>
     <t>5628678</t>
@@ -495,10 +495,10 @@
     <t>carbonic anhydrase 12 (homo sapiens)</t>
   </si>
   <si>
-    <t>67327339</t>
-  </si>
-  <si>
-    <t>73743220</t>
+    <t>7311678</t>
+  </si>
+  <si>
+    <t>1101838</t>
   </si>
   <si>
     <t>5070869</t>
@@ -507,13 +507,13 @@
     <t>antihypertensive agents</t>
   </si>
   <si>
-    <t>134666830</t>
-  </si>
-  <si>
-    <t>105771884</t>
-  </si>
-  <si>
-    <t>134662937</t>
+    <t>68306986</t>
+  </si>
+  <si>
+    <t>68310137</t>
+  </si>
+  <si>
+    <t>39420033</t>
   </si>
   <si>
     <t>4608769</t>
@@ -522,19 +522,19 @@
     <t>sulfonamides</t>
   </si>
   <si>
-    <t>172285370</t>
-  </si>
-  <si>
-    <t>160654021</t>
-  </si>
-  <si>
-    <t>204876968</t>
+    <t>82796697</t>
+  </si>
+  <si>
+    <t>94479439</t>
+  </si>
+  <si>
+    <t>138681888</t>
   </si>
   <si>
     <t>is parent of</t>
   </si>
   <si>
-    <t>149174119</t>
+    <t>106094914</t>
   </si>
   <si>
     <t>4474737</t>
@@ -543,7 +543,7 @@
     <t>carbonic anhydrase 4 (bos taurus)</t>
   </si>
   <si>
-    <t>67299524</t>
+    <t>891027</t>
   </si>
   <si>
     <t>1697536</t>
@@ -552,7 +552,7 @@
     <t>carbonic anhydrase 9</t>
   </si>
   <si>
-    <t>67299633</t>
+    <t>891200</t>
   </si>
   <si>
     <t>3170822</t>
@@ -561,25 +561,25 @@
     <t>acetazolamide</t>
   </si>
   <si>
-    <t>146595165</t>
-  </si>
-  <si>
-    <t>159201602</t>
-  </si>
-  <si>
-    <t>146595927</t>
-  </si>
-  <si>
-    <t>185267350</t>
-  </si>
-  <si>
-    <t>185069191</t>
-  </si>
-  <si>
-    <t>165542660</t>
-  </si>
-  <si>
-    <t>134814921</t>
+    <t>93019368</t>
+  </si>
+  <si>
+    <t>68361041</t>
+  </si>
+  <si>
+    <t>119057100</t>
+  </si>
+  <si>
+    <t>118873254</t>
+  </si>
+  <si>
+    <t>80153612</t>
+  </si>
+  <si>
+    <t>80152811</t>
+  </si>
+  <si>
+    <t>99340086</t>
   </si>
   <si>
     <t>60150</t>
@@ -588,7 +588,7 @@
     <t>thromboxanes</t>
   </si>
   <si>
-    <t>173438425</t>
+    <t>107215892</t>
   </si>
   <si>
     <t>5902170</t>
@@ -597,7 +597,7 @@
     <t>pyruvaldehyde</t>
   </si>
   <si>
-    <t>131130307</t>
+    <t>64783759</t>
   </si>
   <si>
     <t>3816049</t>
@@ -606,37 +606,37 @@
     <t>timolol</t>
   </si>
   <si>
-    <t>183815035</t>
-  </si>
-  <si>
-    <t>153741667</t>
-  </si>
-  <si>
-    <t>153741957</t>
-  </si>
-  <si>
-    <t>120377200</t>
-  </si>
-  <si>
-    <t>164590328</t>
-  </si>
-  <si>
-    <t>175796590</t>
-  </si>
-  <si>
-    <t>141336860</t>
-  </si>
-  <si>
-    <t>119263060</t>
-  </si>
-  <si>
-    <t>146045226</t>
-  </si>
-  <si>
-    <t>153741640</t>
-  </si>
-  <si>
-    <t>188365033</t>
+    <t>79676490</t>
+  </si>
+  <si>
+    <t>54034981</t>
+  </si>
+  <si>
+    <t>52979347</t>
+  </si>
+  <si>
+    <t>98390211</t>
+  </si>
+  <si>
+    <t>87493402</t>
+  </si>
+  <si>
+    <t>74980022</t>
+  </si>
+  <si>
+    <t>122221309</t>
+  </si>
+  <si>
+    <t>87493784</t>
+  </si>
+  <si>
+    <t>117608128</t>
+  </si>
+  <si>
+    <t>87493352</t>
+  </si>
+  <si>
+    <t>109618182</t>
   </si>
   <si>
     <t>529027</t>
@@ -645,7 +645,7 @@
     <t>u-44619</t>
   </si>
   <si>
-    <t>185563840</t>
+    <t>119366642</t>
   </si>
   <si>
     <t>5332246</t>
@@ -654,7 +654,7 @@
     <t>ketorolac</t>
   </si>
   <si>
-    <t>151192420</t>
+    <t>84780837</t>
   </si>
   <si>
     <t>798093</t>
@@ -663,13 +663,13 @@
     <t>leukotriene d4</t>
   </si>
   <si>
-    <t>111783559</t>
+    <t>45606094</t>
   </si>
   <si>
     <t>produces</t>
   </si>
   <si>
-    <t>111685394</t>
+    <t>45507510</t>
   </si>
   <si>
     <t>2819880</t>
@@ -678,10 +678,10 @@
     <t>carbonic anhydrase 7 (homo sapiens)</t>
   </si>
   <si>
-    <t>67520606</t>
-  </si>
-  <si>
-    <t>74804948</t>
+    <t>1101965</t>
+  </si>
+  <si>
+    <t>8338295</t>
   </si>
   <si>
     <t>4405380</t>
@@ -690,10 +690,10 @@
     <t>carbonic anhydrase 14 (homo sapiens)</t>
   </si>
   <si>
-    <t>74814221</t>
-  </si>
-  <si>
-    <t>67520970</t>
+    <t>1102011</t>
+  </si>
+  <si>
+    <t>8347652</t>
   </si>
   <si>
     <t>5487</t>
@@ -702,10 +702,10 @@
     <t>carbonic anhydrase 4 (homo sapiens)</t>
   </si>
   <si>
-    <t>67296811</t>
-  </si>
-  <si>
-    <t>74804905</t>
+    <t>885592</t>
+  </si>
+  <si>
+    <t>8338257</t>
   </si>
   <si>
     <t>309991</t>
@@ -714,7 +714,7 @@
     <t>adrenergic alpha-agonists</t>
   </si>
   <si>
-    <t>122387364</t>
+    <t>56009869</t>
   </si>
   <si>
     <t>3057033</t>
@@ -723,7 +723,7 @@
     <t>sodium salts</t>
   </si>
   <si>
-    <t>167122831</t>
+    <t>100915598</t>
   </si>
   <si>
     <t>4047624</t>
@@ -732,7 +732,7 @@
     <t>glyoxal</t>
   </si>
   <si>
-    <t>131132041</t>
+    <t>64785520</t>
   </si>
   <si>
     <t>4041896</t>
@@ -741,10 +741,10 @@
     <t>carbonic anhydrase ii</t>
   </si>
   <si>
-    <t>142510543</t>
-  </si>
-  <si>
-    <t>144694018</t>
+    <t>76153720</t>
+  </si>
+  <si>
+    <t>78325562</t>
   </si>
   <si>
     <t>3814895</t>
@@ -753,7 +753,7 @@
     <t>prostaglandins, synthetic</t>
   </si>
   <si>
-    <t>181664414</t>
+    <t>115466714</t>
   </si>
   <si>
     <t>720586</t>
@@ -762,10 +762,10 @@
     <t>carbonic anhydrase 6 (homo sapiens)</t>
   </si>
   <si>
-    <t>74814165</t>
-  </si>
-  <si>
-    <t>67371750</t>
+    <t>8347591</t>
+  </si>
+  <si>
+    <t>983076</t>
   </si>
   <si>
     <t>4659084</t>
@@ -774,10 +774,10 @@
     <t>carbonic anhydrase 5a, mitochondrial (homo sapiens)</t>
   </si>
   <si>
-    <t>74811531</t>
-  </si>
-  <si>
-    <t>67295716</t>
+    <t>966021</t>
+  </si>
+  <si>
+    <t>8344947</t>
   </si>
   <si>
     <t>2813392</t>
@@ -786,7 +786,7 @@
     <t>dendrimers</t>
   </si>
   <si>
-    <t>190038527</t>
+    <t>123845986</t>
   </si>
   <si>
     <t>4652190</t>
@@ -795,10 +795,10 @@
     <t>carbonic anhydrase 5b, mitochondrial (homo sapiens)</t>
   </si>
   <si>
-    <t>74814150</t>
-  </si>
-  <si>
-    <t>67295621</t>
+    <t>966066</t>
+  </si>
+  <si>
+    <t>8347570</t>
   </si>
   <si>
     <t>2422008</t>
@@ -807,7 +807,7 @@
     <t>diamox</t>
   </si>
   <si>
-    <t>167330759</t>
+    <t>101130767</t>
   </si>
   <si>
     <t>4041438</t>
@@ -816,10 +816,10 @@
     <t>betaxolol</t>
   </si>
   <si>
-    <t>171199484</t>
-  </si>
-  <si>
-    <t>172976484</t>
+    <t>106787127</t>
+  </si>
+  <si>
+    <t>104985528</t>
   </si>
   <si>
     <t>5211975</t>
@@ -828,40 +828,40 @@
     <t>latanoprost</t>
   </si>
   <si>
-    <t>121054444</t>
-  </si>
-  <si>
-    <t>178949773</t>
-  </si>
-  <si>
-    <t>151651051</t>
-  </si>
-  <si>
-    <t>183520572</t>
-  </si>
-  <si>
-    <t>153742203</t>
+    <t>117608113</t>
+  </si>
+  <si>
+    <t>117298541</t>
+  </si>
+  <si>
+    <t>75367837</t>
   </si>
   <si>
     <t>is lower than</t>
   </si>
   <si>
-    <t>171271243</t>
-  </si>
-  <si>
-    <t>197696283</t>
-  </si>
-  <si>
-    <t>183815021</t>
-  </si>
-  <si>
-    <t>144772187</t>
-  </si>
-  <si>
-    <t>141725036</t>
-  </si>
-  <si>
-    <t>148776288</t>
+    <t>78402820</t>
+  </si>
+  <si>
+    <t>112723540</t>
+  </si>
+  <si>
+    <t>54679711</t>
+  </si>
+  <si>
+    <t>82394768</t>
+  </si>
+  <si>
+    <t>85270043</t>
+  </si>
+  <si>
+    <t>131536073</t>
+  </si>
+  <si>
+    <t>105156593</t>
+  </si>
+  <si>
+    <t>87494076</t>
   </si>
   <si>
     <t>5126934</t>
@@ -870,10 +870,10 @@
     <t>timolol maleate</t>
   </si>
   <si>
-    <t>161703846</t>
-  </si>
-  <si>
-    <t>185745525</t>
+    <t>119534715</t>
+  </si>
+  <si>
+    <t>95515340</t>
   </si>
   <si>
     <t>4584306</t>
@@ -882,10 +882,10 @@
     <t>carbonic anhydrase 3 (homo sapiens)</t>
   </si>
   <si>
-    <t>74811499</t>
-  </si>
-  <si>
-    <t>67501830</t>
+    <t>8344897</t>
+  </si>
+  <si>
+    <t>1101896</t>
   </si>
   <si>
     <t>2825171</t>
@@ -894,7 +894,40 @@
     <t>carbonic anhydrase 13 (homo sapiens)</t>
   </si>
   <si>
-    <t>71161972</t>
+    <t>4695479</t>
+  </si>
+  <si>
+    <t>4041907</t>
+  </si>
+  <si>
+    <t>carbonic anhydrase inhibitors</t>
+  </si>
+  <si>
+    <t>107216968</t>
+  </si>
+  <si>
+    <t>60375504</t>
+  </si>
+  <si>
+    <t>114830426</t>
+  </si>
+  <si>
+    <t>56010266</t>
+  </si>
+  <si>
+    <t>137726627</t>
+  </si>
+  <si>
+    <t>3237237</t>
+  </si>
+  <si>
+    <t>carbonic anhydrase vi</t>
+  </si>
+  <si>
+    <t>983074</t>
+  </si>
+  <si>
+    <t>81181771</t>
   </si>
   <si>
     <t>3108965</t>
@@ -903,64 +936,31 @@
     <t>brimonidine</t>
   </si>
   <si>
-    <t>163522763</t>
-  </si>
-  <si>
-    <t>182603938</t>
-  </si>
-  <si>
-    <t>191033807</t>
-  </si>
-  <si>
-    <t>172542190</t>
-  </si>
-  <si>
-    <t>180504171</t>
-  </si>
-  <si>
-    <t>182604140</t>
+    <t>124895376</t>
+  </si>
+  <si>
+    <t>97314210</t>
+  </si>
+  <si>
+    <t>116397290</t>
   </si>
   <si>
     <t>is not higher than</t>
   </si>
   <si>
-    <t>151650906</t>
-  </si>
-  <si>
-    <t>129346942</t>
-  </si>
-  <si>
-    <t>4041907</t>
-  </si>
-  <si>
-    <t>carbonic anhydrase inhibitors</t>
-  </si>
-  <si>
-    <t>126779873</t>
-  </si>
-  <si>
-    <t>122387794</t>
-  </si>
-  <si>
-    <t>203916733</t>
-  </si>
-  <si>
-    <t>173439432</t>
-  </si>
-  <si>
-    <t>181039681</t>
-  </si>
-  <si>
-    <t>3237237</t>
-  </si>
-  <si>
-    <t>carbonic anhydrase vi</t>
-  </si>
-  <si>
-    <t>67371749</t>
-  </si>
-  <si>
-    <t>147577390</t>
+    <t>114285845</t>
+  </si>
+  <si>
+    <t>106322653</t>
+  </si>
+  <si>
+    <t>116397106</t>
+  </si>
+  <si>
+    <t>62925807</t>
+  </si>
+  <si>
+    <t>85269887</t>
   </si>
   <si>
     <t>4041494</t>
@@ -969,7 +969,7 @@
     <t>carteolol</t>
   </si>
   <si>
-    <t>181144593</t>
+    <t>114941217</t>
   </si>
   <si>
     <t>4028785</t>
@@ -978,16 +978,16 @@
     <t>methazolamide</t>
   </si>
   <si>
-    <t>168938699</t>
-  </si>
-  <si>
-    <t>168765101</t>
-  </si>
-  <si>
-    <t>168765013</t>
-  </si>
-  <si>
-    <t>168952237</t>
+    <t>102554217</t>
+  </si>
+  <si>
+    <t>102726787</t>
+  </si>
+  <si>
+    <t>102554315</t>
+  </si>
+  <si>
+    <t>102739467</t>
   </si>
   <si>
     <t>2449581</t>
@@ -996,10 +996,10 @@
     <t>ocular hypotensive</t>
   </si>
   <si>
-    <t>153226301</t>
-  </si>
-  <si>
-    <t>129162681</t>
+    <t>62795327</t>
+  </si>
+  <si>
+    <t>86868513</t>
   </si>
   <si>
     <t>4041868</t>
@@ -1008,10 +1008,10 @@
     <t>levobunolol</t>
   </si>
   <si>
-    <t>171544250</t>
-  </si>
-  <si>
-    <t>171527421</t>
+    <t>105315843</t>
+  </si>
+  <si>
+    <t>105333240</t>
   </si>
   <si>
     <t>817314</t>
@@ -1020,13 +1020,13 @@
     <t>apraclonidine</t>
   </si>
   <si>
-    <t>160216685</t>
-  </si>
-  <si>
-    <t>160217038</t>
-  </si>
-  <si>
-    <t>138084107</t>
+    <t>94047490</t>
+  </si>
+  <si>
+    <t>71703955</t>
+  </si>
+  <si>
+    <t>94047133</t>
   </si>
   <si>
     <t>4916493</t>
@@ -1035,7 +1035,7 @@
     <t>valeric acid</t>
   </si>
   <si>
-    <t>142456102</t>
+    <t>76101397</t>
   </si>
   <si>
     <t>4560354</t>
@@ -1044,10 +1044,10 @@
     <t>carbonic anhydrase 13 (mus musculus)</t>
   </si>
   <si>
-    <t>74805000</t>
-  </si>
-  <si>
-    <t>67525419</t>
+    <t>8338368</t>
+  </si>
+  <si>
+    <t>1102004</t>
   </si>
   <si>
     <t>398817</t>
@@ -1056,10 +1056,10 @@
     <t>bimatoprost</t>
   </si>
   <si>
-    <t>129157189</t>
-  </si>
-  <si>
-    <t>187310380</t>
+    <t>62789521</t>
+  </si>
+  <si>
+    <t>121100539</t>
   </si>
   <si>
     <t>4732516</t>
@@ -1068,10 +1068,10 @@
     <t>artificial tears</t>
   </si>
   <si>
-    <t>186968257</t>
-  </si>
-  <si>
-    <t>186968221</t>
+    <t>120756970</t>
+  </si>
+  <si>
+    <t>120757010</t>
   </si>
   <si>
     <t>3814734</t>
@@ -1080,7 +1080,7 @@
     <t>metipranolol</t>
   </si>
   <si>
-    <t>122386268</t>
+    <t>56008491</t>
   </si>
   <si>
     <t>5802056</t>
@@ -1089,10 +1089,10 @@
     <t>leukotriene a4</t>
   </si>
   <si>
-    <t>111783433</t>
-  </si>
-  <si>
-    <t>111680866</t>
+    <t>45502174</t>
+  </si>
+  <si>
+    <t>45606018</t>
   </si>
   <si>
     <t>4405171</t>
@@ -1101,7 +1101,7 @@
     <t>carbonic anhydrase (candida albicans (strain sc5314 / atcc mya-2876))</t>
   </si>
   <si>
-    <t>68936494</t>
+    <t>2513683</t>
   </si>
   <si>
     <t>4319559</t>
@@ -1110,7 +1110,7 @@
     <t>carbonic anhydrase 15 (mus musculus)</t>
   </si>
   <si>
-    <t>67458329</t>
+    <t>1049600</t>
   </si>
   <si>
     <t>311757</t>
@@ -1119,7 +1119,7 @@
     <t>gamma-cyclodextrin</t>
   </si>
   <si>
-    <t>158450969</t>
+    <t>92224241</t>
   </si>
   <si>
     <t>4414772</t>
@@ -1128,7 +1128,7 @@
     <t>methacrylic acid</t>
   </si>
   <si>
-    <t>147577454</t>
+    <t>81181847</t>
   </si>
   <si>
     <t>287365</t>
@@ -1137,22 +1137,22 @@
     <t>brinzolamide</t>
   </si>
   <si>
-    <t>143987611</t>
-  </si>
-  <si>
-    <t>167110850</t>
-  </si>
-  <si>
-    <t>167110751</t>
-  </si>
-  <si>
-    <t>141658911</t>
-  </si>
-  <si>
-    <t>145969987</t>
-  </si>
-  <si>
-    <t>171136120</t>
+    <t>100902792</t>
+  </si>
+  <si>
+    <t>79601531</t>
+  </si>
+  <si>
+    <t>77618661</t>
+  </si>
+  <si>
+    <t>104921648</t>
+  </si>
+  <si>
+    <t>100902720</t>
+  </si>
+  <si>
+    <t>75268283</t>
   </si>
   <si>
     <t>2557492</t>
@@ -1161,13 +1161,13 @@
     <t>travoprost</t>
   </si>
   <si>
-    <t>186225948</t>
-  </si>
-  <si>
-    <t>188364433</t>
-  </si>
-  <si>
-    <t>188364500</t>
+    <t>122220752</t>
+  </si>
+  <si>
+    <t>122220814</t>
+  </si>
+  <si>
+    <t>120029937</t>
   </si>
   <si>
     <t>4258139</t>
@@ -1176,7 +1176,7 @@
     <t>uncharacterized protein mb1315 (mycobacterium bovis (strain atcc baa-935 / af2122/97))</t>
   </si>
   <si>
-    <t>72668006</t>
+    <t>6271700</t>
   </si>
   <si>
     <t>3264252</t>
@@ -1185,7 +1185,7 @@
     <t>eye drops brand of tetrahydrozoline</t>
   </si>
   <si>
-    <t>168021363</t>
+    <t>101821268</t>
   </si>
   <si>
     <t>2386021</t>
@@ -1194,10 +1194,10 @@
     <t>topical timolol</t>
   </si>
   <si>
-    <t>191460002</t>
-  </si>
-  <si>
-    <t>178601388</t>
+    <t>125251079</t>
+  </si>
+  <si>
+    <t>112375885</t>
   </si>
   <si>
     <t>4400320</t>
@@ -1206,7 +1206,7 @@
     <t>carbonic anhydrase (saccharomyces cerevisiae (strain atcc 204508 / s288c))</t>
   </si>
   <si>
-    <t>76748222</t>
+    <t>10298542</t>
   </si>
   <si>
     <t>4605618</t>
@@ -1215,7 +1215,7 @@
     <t>carbonic anhydrase (methanosarcina thermophila)</t>
   </si>
   <si>
-    <t>68100513</t>
+    <t>1685088</t>
   </si>
   <si>
     <t>209834</t>
@@ -1224,31 +1224,31 @@
     <t>dorzolamide hydrochloride</t>
   </si>
   <si>
-    <t>161883031</t>
-  </si>
-  <si>
-    <t>185745549</t>
-  </si>
-  <si>
-    <t>175147510</t>
-  </si>
-  <si>
-    <t>205247163</t>
+    <t>95680881</t>
+  </si>
+  <si>
+    <t>119534732</t>
+  </si>
+  <si>
+    <t>138151264</t>
   </si>
   <si>
     <t>converts to</t>
   </si>
   <si>
-    <t>204346946</t>
-  </si>
-  <si>
-    <t>204346945</t>
-  </si>
-  <si>
-    <t>204346943</t>
-  </si>
-  <si>
-    <t>156897152</t>
+    <t>139060748</t>
+  </si>
+  <si>
+    <t>109026801</t>
+  </si>
+  <si>
+    <t>138151266</t>
+  </si>
+  <si>
+    <t>138151265</t>
+  </si>
+  <si>
+    <t>90711628</t>
   </si>
   <si>
     <t>2385613</t>
@@ -1257,7 +1257,7 @@
     <t>xalatan</t>
   </si>
   <si>
-    <t>180851727</t>
+    <t>114727014</t>
   </si>
   <si>
     <t>4541902</t>
@@ -1266,7 +1266,28 @@
     <t>carbonic anhydrase 5a, mitochondrial (mus musculus)</t>
   </si>
   <si>
-    <t>67375730</t>
+    <t>949375</t>
+  </si>
+  <si>
+    <t>536984</t>
+  </si>
+  <si>
+    <t>dorzolamide / timolol</t>
+  </si>
+  <si>
+    <t>52980456</t>
+  </si>
+  <si>
+    <t>138151378</t>
+  </si>
+  <si>
+    <t>138151380</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>138151382</t>
   </si>
   <si>
     <t>4312798</t>
@@ -1275,28 +1296,7 @@
     <t>carbonic anhydrase (helicobacter pylori (strain atcc 700392 / 26695))</t>
   </si>
   <si>
-    <t>73290530</t>
-  </si>
-  <si>
-    <t>536984</t>
-  </si>
-  <si>
-    <t>dorzolamide / timolol</t>
-  </si>
-  <si>
-    <t>204347059</t>
-  </si>
-  <si>
-    <t>119264474</t>
-  </si>
-  <si>
-    <t>204347062</t>
-  </si>
-  <si>
-    <t>204347060</t>
-  </si>
-  <si>
-    <t>is part of</t>
+    <t>6846026</t>
   </si>
   <si>
     <t>547747</t>
@@ -1305,13 +1305,13 @@
     <t>trusopt</t>
   </si>
   <si>
-    <t>176193540</t>
-  </si>
-  <si>
-    <t>204346933</t>
-  </si>
-  <si>
-    <t>119265566</t>
+    <t>110063124</t>
+  </si>
+  <si>
+    <t>138151251</t>
+  </si>
+  <si>
+    <t>52981456</t>
   </si>
   <si>
     <t>4215824</t>
@@ -1320,7 +1320,7 @@
     <t>carbonic anhydrase 2 (mycobacterium tuberculosis (strain cdc 1551 / oshkosh))</t>
   </si>
   <si>
-    <t>72153836</t>
+    <t>5760909</t>
   </si>
   <si>
     <t>227190</t>
@@ -1329,10 +1329,10 @@
     <t>s-[(4s,5r,6e,8e,10z,13z)-1-carboxy-4-hydroxy-6,8,10,13-nonadecatetraen-5-yl]-l-cysteinylglycine</t>
   </si>
   <si>
-    <t>111685409</t>
-  </si>
-  <si>
-    <t>111783566</t>
+    <t>45507533</t>
+  </si>
+  <si>
+    <t>45606098</t>
   </si>
   <si>
     <t>5168573</t>
@@ -1341,10 +1341,10 @@
     <t>(5s,6r,7e,9e,11z,14z)-6-({(2r)-2-ammonio-3-[(carboxylatomethyl)amino]-3-oxopropyl}sulfanyl)-5-hydroxy-7,9,11,14-icosatetraenoate</t>
   </si>
   <si>
-    <t>111685401</t>
-  </si>
-  <si>
-    <t>111783564</t>
+    <t>45606097</t>
+  </si>
+  <si>
+    <t>45507525</t>
   </si>
   <si>
     <t>497032</t>
@@ -1353,7 +1353,7 @@
     <t>carbonic anhydrase v</t>
   </si>
   <si>
-    <t>183154470</t>
+    <t>116948642</t>
   </si>
   <si>
     <t>753099</t>
@@ -1362,10 +1362,10 @@
     <t>cosopt</t>
   </si>
   <si>
-    <t>174556615</t>
-  </si>
-  <si>
-    <t>141722170</t>
+    <t>108431023</t>
+  </si>
+  <si>
+    <t>75332634</t>
   </si>
   <si>
     <t>5651354</t>
@@ -1374,10 +1374,10 @@
     <t>leukotriene a4 (chembl69439)</t>
   </si>
   <si>
-    <t>111680857</t>
-  </si>
-  <si>
-    <t>111783431</t>
+    <t>45606016</t>
+  </si>
+  <si>
+    <t>45502165</t>
   </si>
   <si>
     <t>3763119</t>
@@ -1386,7 +1386,7 @@
     <t>mk 507</t>
   </si>
   <si>
-    <t>204346921</t>
+    <t>138151234</t>
   </si>
   <si>
     <t>5029791</t>
@@ -1395,10 +1395,10 @@
     <t>(7e,9e,11z,14z)-(5s,6s)-5,6-epoxyicosa-7,9,11,14-tetraenoate</t>
   </si>
   <si>
-    <t>111783428</t>
-  </si>
-  <si>
-    <t>111680836</t>
+    <t>45502145</t>
+  </si>
+  <si>
+    <t>45606013</t>
   </si>
   <si>
     <t>5147145</t>
@@ -1407,7 +1407,7 @@
     <t>l 671152</t>
   </si>
   <si>
-    <t>204346910</t>
+    <t>138151221</t>
   </si>
   <si>
     <t>3786253</t>
@@ -1416,7 +1416,7 @@
     <t>seminaphthorhodaminefluoride</t>
   </si>
   <si>
-    <t>159062637</t>
+    <t>92888077</t>
   </si>
   <si>
     <t>826888</t>
@@ -1425,7 +1425,7 @@
     <t>dorzolamide chibret</t>
   </si>
   <si>
-    <t>204347046</t>
+    <t>138151368</t>
   </si>
   <si>
     <t>537259</t>
@@ -1434,7 +1434,7 @@
     <t>dorzolamide, (trans)-isomer</t>
   </si>
   <si>
-    <t>204346959</t>
+    <t>138151281</t>
   </si>
   <si>
     <t>5037847</t>
@@ -1443,7 +1443,7 @@
     <t>sezolamide</t>
   </si>
   <si>
-    <t>144619104</t>
+    <t>78227263</t>
   </si>
   <si>
     <t>838085</t>
@@ -1452,7 +1452,7 @@
     <t>amino acid [epc]</t>
   </si>
   <si>
-    <t>110637287</t>
+    <t>44432248</t>
   </si>
   <si>
     <t>2481449</t>
@@ -1461,10 +1461,10 @@
     <t>dorzolamide 20 mg/ml / timolol 5 mg/ml ophthalmic solution</t>
   </si>
   <si>
-    <t>204346990</t>
-  </si>
-  <si>
-    <t>204346987</t>
+    <t>138151312</t>
+  </si>
+  <si>
+    <t>138151311</t>
   </si>
   <si>
     <t>2482870</t>
@@ -1473,10 +1473,10 @@
     <t>dorzolamide 20 mg/ml ophthalmic solution</t>
   </si>
   <si>
-    <t>204346970</t>
-  </si>
-  <si>
-    <t>204346973</t>
+    <t>138151293</t>
+  </si>
+  <si>
+    <t>138151292</t>
   </si>
   <si>
     <t>3228022</t>
@@ -1485,7 +1485,7 @@
     <t>dorzolamide 20 mg/ml</t>
   </si>
   <si>
-    <t>204346997</t>
+    <t>138151322</t>
   </si>
   <si>
     <t>2713829</t>
@@ -1494,7 +1494,7 @@
     <t>carbonic anhydrase inhibitors, ophthalmic</t>
   </si>
   <si>
-    <t>203910704</t>
+    <t>137722523</t>
   </si>
   <si>
     <t>3178918</t>
@@ -1503,7 +1503,7 @@
     <t>dorzolamide / timolol ophthalmic solution</t>
   </si>
   <si>
-    <t>204347022</t>
+    <t>138151343</t>
   </si>
   <si>
     <t>1838496</t>
@@ -1512,7 +1512,7 @@
     <t>dorzolamide / timolol ophthalmic product</t>
   </si>
   <si>
-    <t>204347074</t>
+    <t>138151394</t>
   </si>
   <si>
     <t>1769645</t>
@@ -1521,7 +1521,7 @@
     <t>carbonic anhydrase inhibitor [epc]</t>
   </si>
   <si>
-    <t>206189587</t>
+    <t>140001287</t>
   </si>
   <si>
     <t>3180448</t>
@@ -1530,7 +1530,7 @@
     <t>dorzolamide ophthalmic solution</t>
   </si>
   <si>
-    <t>204347008</t>
+    <t>138151332</t>
   </si>
   <si>
     <t>2977485</t>
@@ -1539,10 +1539,10 @@
     <t>dorzolamide sodium</t>
   </si>
   <si>
-    <t>204347035</t>
-  </si>
-  <si>
-    <t>205763465</t>
+    <t>138151355</t>
+  </si>
+  <si>
+    <t>139580044</t>
   </si>
   <si>
     <t>1837409</t>
@@ -1551,7 +1551,7 @@
     <t>dorzolamide ophthalmic product</t>
   </si>
   <si>
-    <t>204347086</t>
+    <t>138151406</t>
   </si>
   <si>
     <t>129543</t>
@@ -1563,7 +1563,7 @@
     <t>Anatomy</t>
   </si>
   <si>
-    <t>105771886</t>
+    <t>39420035</t>
   </si>
   <si>
     <t>2449184</t>
@@ -1572,7 +1572,7 @@
     <t>tissue membrane</t>
   </si>
   <si>
-    <t>105771887</t>
+    <t>39420036</t>
   </si>
   <si>
     <t>47573</t>
@@ -1581,7 +1581,7 @@
     <t>cells</t>
   </si>
   <si>
-    <t>172632141</t>
+    <t>106523991</t>
   </si>
   <si>
     <t>is location of</t>
@@ -1593,7 +1593,7 @@
     <t>neurons</t>
   </si>
   <si>
-    <t>131141411</t>
+    <t>64794353</t>
   </si>
   <si>
     <t>613023</t>
@@ -1602,7 +1602,7 @@
     <t>body tissue</t>
   </si>
   <si>
-    <t>175147485</t>
+    <t>109026776</t>
   </si>
   <si>
     <t>5597438</t>
@@ -1611,7 +1611,7 @@
     <t>caco-2</t>
   </si>
   <si>
-    <t>71008844</t>
+    <t>4510033</t>
   </si>
   <si>
     <t>836328</t>
@@ -1620,7 +1620,7 @@
     <t>blood</t>
   </si>
   <si>
-    <t>105771888</t>
+    <t>39420037</t>
   </si>
   <si>
     <t>615763</t>
@@ -1629,7 +1629,7 @@
     <t>microsomes, liver</t>
   </si>
   <si>
-    <t>163627248</t>
+    <t>97429783</t>
   </si>
   <si>
     <t>4041592</t>
@@ -1638,28 +1638,28 @@
     <t>eye</t>
   </si>
   <si>
-    <t>174246705</t>
+    <t>108039310</t>
   </si>
   <si>
     <t>disrupts</t>
   </si>
   <si>
-    <t>126780243</t>
-  </si>
-  <si>
-    <t>162286511</t>
+    <t>96084677</t>
   </si>
   <si>
     <t>affects</t>
   </si>
   <si>
+    <t>60375959</t>
+  </si>
+  <si>
     <t>395518</t>
   </si>
   <si>
     <t>urine</t>
   </si>
   <si>
-    <t>105771889</t>
+    <t>39420038</t>
   </si>
   <si>
     <t>5698646</t>
@@ -1668,10 +1668,10 @@
     <t>retina</t>
   </si>
   <si>
-    <t>152099685</t>
-  </si>
-  <si>
-    <t>137972963</t>
+    <t>85674241</t>
+  </si>
+  <si>
+    <t>71569778</t>
   </si>
   <si>
     <t>246553</t>
@@ -1680,7 +1680,7 @@
     <t>erythrocytes</t>
   </si>
   <si>
-    <t>141530450</t>
+    <t>75063976</t>
   </si>
   <si>
     <t>3176707</t>
@@ -1689,7 +1689,7 @@
     <t>column (anatomic)</t>
   </si>
   <si>
-    <t>139682722</t>
+    <t>73244866</t>
   </si>
   <si>
     <t>31905</t>
@@ -1698,7 +1698,7 @@
     <t>arteries</t>
   </si>
   <si>
-    <t>147626182</t>
+    <t>81251109</t>
   </si>
   <si>
     <t>4041052</t>
@@ -1707,7 +1707,7 @@
     <t>cornea</t>
   </si>
   <si>
-    <t>174735894</t>
+    <t>108556623</t>
   </si>
   <si>
     <t>769464</t>
@@ -1716,7 +1716,7 @@
     <t>structure of arteriole</t>
   </si>
   <si>
-    <t>197145594</t>
+    <t>130943867</t>
   </si>
   <si>
     <t>3776228</t>
@@ -1725,7 +1725,7 @@
     <t>right eye</t>
   </si>
   <si>
-    <t>141779871</t>
+    <t>75391382</t>
   </si>
   <si>
     <t>548324</t>
@@ -1734,7 +1734,7 @@
     <t>muscle, smooth, vascular</t>
   </si>
   <si>
-    <t>181039557</t>
+    <t>114830278</t>
   </si>
   <si>
     <t>5243228</t>
@@ -1743,10 +1743,10 @@
     <t>choroid</t>
   </si>
   <si>
-    <t>193160610</t>
-  </si>
-  <si>
-    <t>194675372</t>
+    <t>128453581</t>
+  </si>
+  <si>
+    <t>127009003</t>
   </si>
   <si>
     <t>4826196</t>
@@ -1755,7 +1755,7 @@
     <t>retinal ganglion cells</t>
   </si>
   <si>
-    <t>174217827</t>
+    <t>108009705</t>
   </si>
   <si>
     <t>713742</t>
@@ -1764,7 +1764,7 @@
     <t>structure of venule</t>
   </si>
   <si>
-    <t>197145608</t>
+    <t>130943880</t>
   </si>
   <si>
     <t>4027101</t>
@@ -1773,7 +1773,7 @@
     <t>optic disk</t>
   </si>
   <si>
-    <t>179682359</t>
+    <t>113508244</t>
   </si>
   <si>
     <t>3248181</t>
@@ -1782,10 +1782,10 @@
     <t>entire trabecular meshwork</t>
   </si>
   <si>
-    <t>184479540</t>
-  </si>
-  <si>
-    <t>140413844</t>
+    <t>74063586</t>
+  </si>
+  <si>
+    <t>118267636</t>
   </si>
   <si>
     <t>3262625</t>
@@ -1794,7 +1794,7 @@
     <t>corneal endothelial cell</t>
   </si>
   <si>
-    <t>170252937</t>
+    <t>104033820</t>
   </si>
   <si>
     <t>4034895</t>
@@ -1803,10 +1803,10 @@
     <t>corneal endothelium</t>
   </si>
   <si>
-    <t>168400559</t>
-  </si>
-  <si>
-    <t>131589513</t>
+    <t>102205038</t>
+  </si>
+  <si>
+    <t>65228938</t>
   </si>
   <si>
     <t>2883535</t>
@@ -1815,7 +1815,7 @@
     <t>entire ophthalmic artery</t>
   </si>
   <si>
-    <t>193307029</t>
+    <t>127092636</t>
   </si>
   <si>
     <t>3815125</t>
@@ -1824,7 +1824,7 @@
     <t>structure of central retinal artery</t>
   </si>
   <si>
-    <t>135957945</t>
+    <t>69611951</t>
   </si>
   <si>
     <t>2880550</t>
@@ -1833,13 +1833,13 @@
     <t>entire central retinal artery</t>
   </si>
   <si>
-    <t>127006159</t>
+    <t>60588807</t>
   </si>
   <si>
     <t>augments</t>
   </si>
   <si>
-    <t>127013109</t>
+    <t>60595727</t>
   </si>
   <si>
     <t>2542307</t>
@@ -1848,7 +1848,7 @@
     <t>posterior ciliary artery</t>
   </si>
   <si>
-    <t>171276064</t>
+    <t>105060897</t>
   </si>
   <si>
     <t>1731240</t>
@@ -1860,7 +1860,7 @@
     <t>Genes &amp; Molecular Sequences</t>
   </si>
   <si>
-    <t>136598027</t>
+    <t>70166935</t>
   </si>
   <si>
     <t>2961813</t>
@@ -1869,19 +1869,19 @@
     <t>ca2 (homo sapiens)</t>
   </si>
   <si>
-    <t>111613837</t>
-  </si>
-  <si>
-    <t>181663067</t>
-  </si>
-  <si>
-    <t>90233560</t>
+    <t>115464242</t>
+  </si>
+  <si>
+    <t>18667041</t>
+  </si>
+  <si>
+    <t>18666989</t>
   </si>
   <si>
     <t>binds with</t>
   </si>
   <si>
-    <t>90233571</t>
+    <t>45415667</t>
   </si>
   <si>
     <t>2785900</t>
@@ -1890,7 +1890,7 @@
     <t>gnb1 (homo sapiens)</t>
   </si>
   <si>
-    <t>111782188</t>
+    <t>45604623</t>
   </si>
   <si>
     <t>2788498</t>
@@ -1899,7 +1899,7 @@
     <t>gnb3 (homo sapiens)</t>
   </si>
   <si>
-    <t>111782304</t>
+    <t>45604704</t>
   </si>
   <si>
     <t>2788262</t>
@@ -1908,7 +1908,7 @@
     <t>gnb2 (homo sapiens)</t>
   </si>
   <si>
-    <t>111782256</t>
+    <t>45604673</t>
   </si>
   <si>
     <t>3021478</t>
@@ -1917,7 +1917,7 @@
     <t>gnb4 (homo sapiens)</t>
   </si>
   <si>
-    <t>111782365</t>
+    <t>45604762</t>
   </si>
   <si>
     <t>667631</t>
@@ -1926,7 +1926,7 @@
     <t>gng2 (homo sapiens)</t>
   </si>
   <si>
-    <t>111782786</t>
+    <t>45605525</t>
   </si>
   <si>
     <t>3020695</t>
@@ -1935,7 +1935,16 @@
     <t>gngt1 (homo sapiens)</t>
   </si>
   <si>
-    <t>111783165</t>
+    <t>45605821</t>
+  </si>
+  <si>
+    <t>2787937</t>
+  </si>
+  <si>
+    <t>gnai3 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45604560</t>
   </si>
   <si>
     <t>3020727</t>
@@ -1944,16 +1953,7 @@
     <t>gng11 (homo sapiens)</t>
   </si>
   <si>
-    <t>111782597</t>
-  </si>
-  <si>
-    <t>2787937</t>
-  </si>
-  <si>
-    <t>gnai3 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111782103</t>
+    <t>45604955</t>
   </si>
   <si>
     <t>667356</t>
@@ -1962,7 +1962,7 @@
     <t>gng12 (homo sapiens)</t>
   </si>
   <si>
-    <t>111782665</t>
+    <t>45605004</t>
   </si>
   <si>
     <t>3020670</t>
@@ -1971,7 +1971,7 @@
     <t>gng4 (homo sapiens)</t>
   </si>
   <si>
-    <t>111782928</t>
+    <t>45605631</t>
   </si>
   <si>
     <t>2791192</t>
@@ -1980,7 +1980,7 @@
     <t>gnai2 (homo sapiens)</t>
   </si>
   <si>
-    <t>111782046</t>
+    <t>45604513</t>
   </si>
   <si>
     <t>3020880</t>
@@ -1989,7 +1989,7 @@
     <t>gnb5 (homo sapiens)</t>
   </si>
   <si>
-    <t>111782457</t>
+    <t>45604858</t>
   </si>
   <si>
     <t>3020710</t>
@@ -1998,7 +1998,7 @@
     <t>gng7 (homo sapiens)</t>
   </si>
   <si>
-    <t>111783086</t>
+    <t>45605744</t>
   </si>
   <si>
     <t>3020676</t>
@@ -2007,7 +2007,7 @@
     <t>gng3 (homo sapiens)</t>
   </si>
   <si>
-    <t>111782848</t>
+    <t>45605582</t>
   </si>
   <si>
     <t>3020607</t>
@@ -2016,7 +2016,7 @@
     <t>gng5 (homo sapiens)</t>
   </si>
   <si>
-    <t>111783029</t>
+    <t>45605719</t>
   </si>
   <si>
     <t>1653849</t>
@@ -2025,7 +2025,7 @@
     <t>gng8 (homo sapiens)</t>
   </si>
   <si>
-    <t>111783129</t>
+    <t>45605769</t>
   </si>
   <si>
     <t>3020901</t>
@@ -2034,7 +2034,7 @@
     <t>gngt2 (homo sapiens)</t>
   </si>
   <si>
-    <t>111783127</t>
+    <t>45605768</t>
   </si>
   <si>
     <t>3020519</t>
@@ -2043,7 +2043,7 @@
     <t>gng10 (homo sapiens)</t>
   </si>
   <si>
-    <t>111782530</t>
+    <t>45604904</t>
   </si>
   <si>
     <t>2787074</t>
@@ -2052,7 +2052,19 @@
     <t>gnai1 (homo sapiens)</t>
   </si>
   <si>
-    <t>111781994</t>
+    <t>45604473</t>
+  </si>
+  <si>
+    <t>2558682</t>
+  </si>
+  <si>
+    <t>abcc1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>44206659</t>
+  </si>
+  <si>
+    <t>controls transport of</t>
   </si>
   <si>
     <t>2788945</t>
@@ -2061,7 +2073,7 @@
     <t>gnaq (homo sapiens)</t>
   </si>
   <si>
-    <t>111782138</t>
+    <t>45604584</t>
   </si>
   <si>
     <t>3009969</t>
@@ -2070,19 +2082,7 @@
     <t>gng13 (homo sapiens)</t>
   </si>
   <si>
-    <t>111782726</t>
-  </si>
-  <si>
-    <t>2558682</t>
-  </si>
-  <si>
-    <t>abcc1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>110403891</t>
-  </si>
-  <si>
-    <t>controls transport of</t>
+    <t>45605480</t>
   </si>
   <si>
     <t>2962067</t>
@@ -2091,7 +2091,7 @@
     <t>ca1 (homo sapiens)</t>
   </si>
   <si>
-    <t>111613802</t>
+    <t>45415553</t>
   </si>
   <si>
     <t>2148815</t>
@@ -2100,7 +2100,7 @@
     <t>gna11 (homo sapiens)</t>
   </si>
   <si>
-    <t>111781866</t>
+    <t>45604308</t>
   </si>
   <si>
     <t>1659935</t>
@@ -2109,10 +2109,10 @@
     <t>txnip (homo sapiens)</t>
   </si>
   <si>
-    <t>136597229</t>
-  </si>
-  <si>
-    <t>136599971</t>
+    <t>70168957</t>
+  </si>
+  <si>
+    <t>70166309</t>
   </si>
   <si>
     <t>2788754</t>
@@ -2121,7 +2121,7 @@
     <t>bak1 (homo sapiens)</t>
   </si>
   <si>
-    <t>193940497</t>
+    <t>127784815</t>
   </si>
   <si>
     <t>1329176</t>
@@ -2130,7 +2130,7 @@
     <t>alox5 (homo sapiens)</t>
   </si>
   <si>
-    <t>110561030</t>
+    <t>44363668</t>
   </si>
   <si>
     <t>3020600</t>
@@ -2139,7 +2139,7 @@
     <t>gna14 (homo sapiens)</t>
   </si>
   <si>
-    <t>111781921</t>
+    <t>45604387</t>
   </si>
   <si>
     <t>2962024</t>
@@ -2148,13 +2148,13 @@
     <t>ca3 (homo sapiens)</t>
   </si>
   <si>
-    <t>111613877</t>
-  </si>
-  <si>
-    <t>89192089</t>
-  </si>
-  <si>
-    <t>89192103</t>
+    <t>17552705</t>
+  </si>
+  <si>
+    <t>45415716</t>
+  </si>
+  <si>
+    <t>17552773</t>
   </si>
   <si>
     <t>3020931</t>
@@ -2163,7 +2163,7 @@
     <t>ggt1 (homo sapiens)</t>
   </si>
   <si>
-    <t>111781738</t>
+    <t>45604232</t>
   </si>
   <si>
     <t>consumption controlled by</t>
@@ -2175,7 +2175,16 @@
     <t>ca9 (homo sapiens)</t>
   </si>
   <si>
-    <t>111614755</t>
+    <t>45416358</t>
+  </si>
+  <si>
+    <t>2961805</t>
+  </si>
+  <si>
+    <t>ca4 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45415816</t>
   </si>
   <si>
     <t>2962103</t>
@@ -2184,16 +2193,7 @@
     <t>ca12 (homo sapiens)</t>
   </si>
   <si>
-    <t>111613609</t>
-  </si>
-  <si>
-    <t>2961805</t>
-  </si>
-  <si>
-    <t>ca4 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111613934</t>
+    <t>45415288</t>
   </si>
   <si>
     <t>3021789</t>
@@ -2202,7 +2202,7 @@
     <t>cysltr1 (homo sapiens)</t>
   </si>
   <si>
-    <t>111781637</t>
+    <t>45604154</t>
   </si>
   <si>
     <t>3020818</t>
@@ -2211,7 +2211,7 @@
     <t>gna15 (homo sapiens)</t>
   </si>
   <si>
-    <t>111781957</t>
+    <t>45604428</t>
   </si>
   <si>
     <t>2963249</t>
@@ -2220,7 +2220,7 @@
     <t>alox5ap (homo sapiens)</t>
   </si>
   <si>
-    <t>110559622</t>
+    <t>44363098</t>
   </si>
   <si>
     <t>2961762</t>
@@ -2229,7 +2229,7 @@
     <t>ca8 (homo sapiens)</t>
   </si>
   <si>
-    <t>111614704</t>
+    <t>45416311</t>
   </si>
   <si>
     <t>3022603</t>
@@ -2238,7 +2238,7 @@
     <t>ltc4s (homo sapiens)</t>
   </si>
   <si>
-    <t>113235544</t>
+    <t>47014251</t>
   </si>
   <si>
     <t>3020868</t>
@@ -2247,7 +2247,7 @@
     <t>ggt5 (homo sapiens)</t>
   </si>
   <si>
-    <t>111781763</t>
+    <t>45604239</t>
   </si>
   <si>
     <t>2999804</t>
@@ -2256,7 +2256,7 @@
     <t>ca13 (homo sapiens)</t>
   </si>
   <si>
-    <t>111613666</t>
+    <t>45415370</t>
   </si>
   <si>
     <t>1659413</t>
@@ -2265,7 +2265,7 @@
     <t>cysltr2 (homo sapiens)</t>
   </si>
   <si>
-    <t>111781691</t>
+    <t>45604192</t>
   </si>
   <si>
     <t>2786018</t>
@@ -2274,7 +2274,7 @@
     <t>hpca (homo sapiens)</t>
   </si>
   <si>
-    <t>178353334</t>
+    <t>112144009</t>
   </si>
   <si>
     <t>2961815</t>
@@ -2283,7 +2283,7 @@
     <t>ca5a (homo sapiens)</t>
   </si>
   <si>
-    <t>111613994</t>
+    <t>45415872</t>
   </si>
   <si>
     <t>2792644</t>
@@ -2292,7 +2292,7 @@
     <t>gpr17 (homo sapiens)</t>
   </si>
   <si>
-    <t>111783322</t>
+    <t>45605905</t>
   </si>
   <si>
     <t>2961832</t>
@@ -2301,7 +2301,7 @@
     <t>ca14 (homo sapiens)</t>
   </si>
   <si>
-    <t>111613717</t>
+    <t>45415419</t>
   </si>
   <si>
     <t>2961727</t>
@@ -2310,7 +2310,7 @@
     <t>ca7 (homo sapiens)</t>
   </si>
   <si>
-    <t>111614630</t>
+    <t>45416226</t>
   </si>
   <si>
     <t>674731</t>
@@ -2319,7 +2319,7 @@
     <t>ca6 (homo sapiens)</t>
   </si>
   <si>
-    <t>111614404</t>
+    <t>45416122</t>
   </si>
   <si>
     <t>2774084</t>
@@ -2328,7 +2328,7 @@
     <t>ggt6 (homo sapiens)</t>
   </si>
   <si>
-    <t>111781782</t>
+    <t>45604247</t>
   </si>
   <si>
     <t>3021025</t>
@@ -2337,7 +2337,7 @@
     <t>ggt7 (homo sapiens)</t>
   </si>
   <si>
-    <t>111781840</t>
+    <t>45604291</t>
   </si>
   <si>
     <t>2961775</t>
@@ -2346,7 +2346,7 @@
     <t>ca5b (homo sapiens)</t>
   </si>
   <si>
-    <t>111614113</t>
+    <t>45416047</t>
   </si>
   <si>
     <t>6072607</t>
@@ -2355,7 +2355,7 @@
     <t>hca1 (homo sapiens)</t>
   </si>
   <si>
-    <t>159119575</t>
+    <t>92952581</t>
   </si>
   <si>
     <t>3000334</t>
@@ -2364,7 +2364,7 @@
     <t>ca5bp1 (homo sapiens)</t>
   </si>
   <si>
-    <t>111614111</t>
+    <t>45416045</t>
   </si>
   <si>
     <t>837423</t>
@@ -2376,7 +2376,7 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>173460894</t>
+    <t>107238807</t>
   </si>
   <si>
     <t>treats</t>
@@ -2388,7 +2388,7 @@
     <t>syndrome</t>
   </si>
   <si>
-    <t>177340450</t>
+    <t>111115854</t>
   </si>
   <si>
     <t>3781901</t>
@@ -2397,7 +2397,7 @@
     <t>lesion</t>
   </si>
   <si>
-    <t>144014149</t>
+    <t>77627895</t>
   </si>
   <si>
     <t>607167</t>
@@ -2406,7 +2406,7 @@
     <t>hypertensive disease</t>
   </si>
   <si>
-    <t>185401633</t>
+    <t>119191153</t>
   </si>
   <si>
     <t>3072277</t>
@@ -2415,13 +2415,13 @@
     <t>antimicrobial susceptibility</t>
   </si>
   <si>
-    <t>160243326</t>
-  </si>
-  <si>
-    <t>179777912</t>
-  </si>
-  <si>
-    <t>160243047</t>
+    <t>94062878</t>
+  </si>
+  <si>
+    <t>113572262</t>
+  </si>
+  <si>
+    <t>94062668</t>
   </si>
   <si>
     <t>5127262</t>
@@ -2430,7 +2430,7 @@
     <t>pain</t>
   </si>
   <si>
-    <t>81472766</t>
+    <t>15243259</t>
   </si>
   <si>
     <t>indicates</t>
@@ -2442,7 +2442,7 @@
     <t>hypersensitivity</t>
   </si>
   <si>
-    <t>156557344</t>
+    <t>90400430</t>
   </si>
   <si>
     <t>causes</t>
@@ -2454,7 +2454,7 @@
     <t>contraction (finding)</t>
   </si>
   <si>
-    <t>140413906</t>
+    <t>74063682</t>
   </si>
   <si>
     <t>2506281</t>
@@ -2463,13 +2463,13 @@
     <t>adverse effects</t>
   </si>
   <si>
-    <t>156897745</t>
-  </si>
-  <si>
-    <t>160242965</t>
-  </si>
-  <si>
-    <t>175929391</t>
+    <t>90712334</t>
+  </si>
+  <si>
+    <t>94062615</t>
+  </si>
+  <si>
+    <t>109715141</t>
   </si>
   <si>
     <t>3779305</t>
@@ -2478,7 +2478,7 @@
     <t>consumption-archaic term for tb</t>
   </si>
   <si>
-    <t>183147741</t>
+    <t>116952385</t>
   </si>
   <si>
     <t>356203</t>
@@ -2487,7 +2487,7 @@
     <t>asthenia</t>
   </si>
   <si>
-    <t>198358564</t>
+    <t>132201718</t>
   </si>
   <si>
     <t>829535</t>
@@ -2496,7 +2496,7 @@
     <t>ache</t>
   </si>
   <si>
-    <t>81472756</t>
+    <t>15243249</t>
   </si>
   <si>
     <t>3116817</t>
@@ -2505,7 +2505,7 @@
     <t>bradycardia</t>
   </si>
   <si>
-    <t>171556113</t>
+    <t>105344783</t>
   </si>
   <si>
     <t>214231</t>
@@ -2514,7 +2514,7 @@
     <t>radiating pain</t>
   </si>
   <si>
-    <t>81472762</t>
+    <t>15243253</t>
   </si>
   <si>
     <t>3769691</t>
@@ -2523,7 +2523,7 @@
     <t>pain, burning</t>
   </si>
   <si>
-    <t>81472764</t>
+    <t>15243257</t>
   </si>
   <si>
     <t>108751</t>
@@ -2532,7 +2532,22 @@
     <t>suffering, physical</t>
   </si>
   <si>
-    <t>81472760</t>
+    <t>15243255</t>
+  </si>
+  <si>
+    <t>4034175</t>
+  </si>
+  <si>
+    <t>glaucoma</t>
+  </si>
+  <si>
+    <t>15243072</t>
+  </si>
+  <si>
+    <t>68316528</t>
+  </si>
+  <si>
+    <t>prevents</t>
   </si>
   <si>
     <t>798084</t>
@@ -2541,7 +2556,7 @@
     <t>pain, migratory</t>
   </si>
   <si>
-    <t>81472755</t>
+    <t>15243247</t>
   </si>
   <si>
     <t>691551</t>
@@ -2550,7 +2565,7 @@
     <t>pain, crushing</t>
   </si>
   <si>
-    <t>81472758</t>
+    <t>15243251</t>
   </si>
   <si>
     <t>3134453</t>
@@ -2559,22 +2574,22 @@
     <t>pain, splitting</t>
   </si>
   <si>
-    <t>81472753</t>
-  </si>
-  <si>
-    <t>4034175</t>
-  </si>
-  <si>
-    <t>glaucoma</t>
-  </si>
-  <si>
-    <t>81472640</t>
-  </si>
-  <si>
-    <t>134673605</t>
-  </si>
-  <si>
-    <t>prevents</t>
+    <t>15243245</t>
+  </si>
+  <si>
+    <t>3772078</t>
+  </si>
+  <si>
+    <t>hepatotoxicity</t>
+  </si>
+  <si>
+    <t>7398691</t>
+  </si>
+  <si>
+    <t>7398687</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
   </si>
   <si>
     <t>4035016</t>
@@ -2583,7 +2598,7 @@
     <t>diabetic retinopathy</t>
   </si>
   <si>
-    <t>197145700</t>
+    <t>130943986</t>
   </si>
   <si>
     <t>4034364</t>
@@ -2592,7 +2607,7 @@
     <t>dermatitis</t>
   </si>
   <si>
-    <t>172166803</t>
+    <t>106059100</t>
   </si>
   <si>
     <t>2423634</t>
@@ -2601,22 +2616,22 @@
     <t>intraocular pressure disorder</t>
   </si>
   <si>
-    <t>129164690</t>
-  </si>
-  <si>
-    <t>118142535</t>
-  </si>
-  <si>
-    <t>139272427</t>
-  </si>
-  <si>
-    <t>168952280</t>
-  </si>
-  <si>
-    <t>142453962</t>
-  </si>
-  <si>
-    <t>155629449</t>
+    <t>75988599</t>
+  </si>
+  <si>
+    <t>51892521</t>
+  </si>
+  <si>
+    <t>72917402</t>
+  </si>
+  <si>
+    <t>89473158</t>
+  </si>
+  <si>
+    <t>62797628</t>
+  </si>
+  <si>
+    <t>102739518</t>
   </si>
   <si>
     <t>4042009</t>
@@ -2625,7 +2640,7 @@
     <t>toxic epidermal necrolysis</t>
   </si>
   <si>
-    <t>81472897</t>
+    <t>15243539</t>
   </si>
   <si>
     <t>5158816</t>
@@ -2634,7 +2649,7 @@
     <t>stevens-johnson syndrome</t>
   </si>
   <si>
-    <t>81472889</t>
+    <t>15243531</t>
   </si>
   <si>
     <t>2617691</t>
@@ -2643,7 +2658,7 @@
     <t>hypertensive (finding)</t>
   </si>
   <si>
-    <t>186703300</t>
+    <t>120492005</t>
   </si>
   <si>
     <t>3729682</t>
@@ -2652,10 +2667,10 @@
     <t>age related macular degeneration</t>
   </si>
   <si>
-    <t>179773723</t>
-  </si>
-  <si>
-    <t>179795529</t>
+    <t>113568363</t>
+  </si>
+  <si>
+    <t>113590420</t>
   </si>
   <si>
     <t>3766801</t>
@@ -2664,7 +2679,7 @@
     <t>fluctuation</t>
   </si>
   <si>
-    <t>179777747</t>
+    <t>113553779</t>
   </si>
   <si>
     <t>3204847</t>
@@ -2673,7 +2688,7 @@
     <t>drug-induced stevens johnson syndrome</t>
   </si>
   <si>
-    <t>81472895</t>
+    <t>15243537</t>
   </si>
   <si>
     <t>1932384</t>
@@ -2682,7 +2697,7 @@
     <t>stevens-johnson syndrome toxic epidermal necrolysis spectrum</t>
   </si>
   <si>
-    <t>81472891</t>
+    <t>15243533</t>
   </si>
   <si>
     <t>1936620</t>
@@ -2691,7 +2706,16 @@
     <t>mycoplasma-induced stevens-johnson syndrome</t>
   </si>
   <si>
-    <t>81472893</t>
+    <t>15243535</t>
+  </si>
+  <si>
+    <t>720404</t>
+  </si>
+  <si>
+    <t>retinitis pigmentosa</t>
+  </si>
+  <si>
+    <t>99356986</t>
   </si>
   <si>
     <t>5060194</t>
@@ -2700,22 +2724,7 @@
     <t>dermatitis, allergic contact</t>
   </si>
   <si>
-    <t>188616146</t>
-  </si>
-  <si>
-    <t>3045767</t>
-  </si>
-  <si>
-    <t>toxic liver disease</t>
-  </si>
-  <si>
-    <t>73807609</t>
-  </si>
-  <si>
-    <t>73807606</t>
-  </si>
-  <si>
-    <t>does not interact with</t>
+    <t>122425323</t>
   </si>
   <si>
     <t>2510916</t>
@@ -2724,16 +2733,7 @@
     <t>hypotensive</t>
   </si>
   <si>
-    <t>188367853</t>
-  </si>
-  <si>
-    <t>720404</t>
-  </si>
-  <si>
-    <t>retinitis pigmentosa</t>
-  </si>
-  <si>
-    <t>165556435</t>
+    <t>122151867</t>
   </si>
   <si>
     <t>2448992</t>
@@ -2742,7 +2742,7 @@
     <t>vasodilation disorder</t>
   </si>
   <si>
-    <t>181039444</t>
+    <t>114830134</t>
   </si>
   <si>
     <t>3771922</t>
@@ -2751,7 +2751,7 @@
     <t>peeling of skin</t>
   </si>
   <si>
-    <t>148182050</t>
+    <t>81808074</t>
   </si>
   <si>
     <t>4027735</t>
@@ -2760,10 +2760,10 @@
     <t>ocular hypertension</t>
   </si>
   <si>
-    <t>81472669</t>
-  </si>
-  <si>
-    <t>134816747</t>
+    <t>68363262</t>
+  </si>
+  <si>
+    <t>15243133</t>
   </si>
   <si>
     <t>1062196</t>
@@ -2772,7 +2772,7 @@
     <t>glaucoma, primary open angle</t>
   </si>
   <si>
-    <t>126093597</t>
+    <t>59622116</t>
   </si>
   <si>
     <t>3081595</t>
@@ -2781,7 +2781,16 @@
     <t>exhaustion, nos</t>
   </si>
   <si>
-    <t>119263620</t>
+    <t>52979708</t>
+  </si>
+  <si>
+    <t>3751230</t>
+  </si>
+  <si>
+    <t>macular edema, cystoid</t>
+  </si>
+  <si>
+    <t>89219927</t>
   </si>
   <si>
     <t>363505</t>
@@ -2790,16 +2799,7 @@
     <t>glaucoma, open-angle</t>
   </si>
   <si>
-    <t>81472654</t>
-  </si>
-  <si>
-    <t>3751230</t>
-  </si>
-  <si>
-    <t>macular edema, cystoid</t>
-  </si>
-  <si>
-    <t>155395111</t>
+    <t>15243102</t>
   </si>
   <si>
     <t>2977236</t>
@@ -2808,7 +2808,7 @@
     <t>cystic lesion</t>
   </si>
   <si>
-    <t>176214103</t>
+    <t>109990989</t>
   </si>
   <si>
     <t>371435</t>
@@ -2817,7 +2817,7 @@
     <t>retinal vein occlusion</t>
   </si>
   <si>
-    <t>176143581</t>
+    <t>109920830</t>
   </si>
   <si>
     <t>2363033</t>
@@ -2826,7 +2826,7 @@
     <t>macular disorder</t>
   </si>
   <si>
-    <t>146467109</t>
+    <t>80024906</t>
   </si>
   <si>
     <t>122238</t>
@@ -2835,7 +2835,7 @@
     <t>glaucoma, suspect</t>
   </si>
   <si>
-    <t>81472668</t>
+    <t>15243131</t>
   </si>
   <si>
     <t>3762437</t>
@@ -2844,7 +2844,7 @@
     <t>hypotonicity</t>
   </si>
   <si>
-    <t>179045340</t>
+    <t>112819187</t>
   </si>
   <si>
     <t>4917056</t>
@@ -2853,7 +2853,7 @@
     <t>low tension glaucoma</t>
   </si>
   <si>
-    <t>141337013</t>
+    <t>74980180</t>
   </si>
   <si>
     <t>3764966</t>
@@ -2862,7 +2862,7 @@
     <t>exfoliation syndrome</t>
   </si>
   <si>
-    <t>185409576</t>
+    <t>119199100</t>
   </si>
   <si>
     <t>4027088</t>
@@ -2871,10 +2871,10 @@
     <t>ocular hypotension</t>
   </si>
   <si>
-    <t>131999223</t>
-  </si>
-  <si>
-    <t>142118576</t>
+    <t>65524563</t>
+  </si>
+  <si>
+    <t>75651048</t>
   </si>
   <si>
     <t>3741357</t>
@@ -2883,7 +2883,7 @@
     <t>exudative senile macular retinal degeneration</t>
   </si>
   <si>
-    <t>193163684</t>
+    <t>127012158</t>
   </si>
   <si>
     <t>439038</t>
@@ -2892,7 +2892,16 @@
     <t>corneal edema</t>
   </si>
   <si>
-    <t>131589277</t>
+    <t>65228672</t>
+  </si>
+  <si>
+    <t>3772003</t>
+  </si>
+  <si>
+    <t>increased intraocular pressure</t>
+  </si>
+  <si>
+    <t>108574581</t>
   </si>
   <si>
     <t>6117259</t>
@@ -2901,16 +2910,7 @@
     <t>secondary glaucoma, nos</t>
   </si>
   <si>
-    <t>184885229</t>
-  </si>
-  <si>
-    <t>3772003</t>
-  </si>
-  <si>
-    <t>increased intraocular pressure</t>
-  </si>
-  <si>
-    <t>174765678</t>
+    <t>118672663</t>
   </si>
   <si>
     <t>3024193</t>
@@ -2919,16 +2919,16 @@
     <t>corneal thickness</t>
   </si>
   <si>
-    <t>167770282</t>
-  </si>
-  <si>
-    <t>139348098</t>
+    <t>72968315</t>
   </si>
   <si>
     <t>does not augment</t>
   </si>
   <si>
-    <t>133565889</t>
+    <t>101555233</t>
+  </si>
+  <si>
+    <t>67227439</t>
   </si>
   <si>
     <t>4857324</t>
@@ -2937,7 +2937,7 @@
     <t>eye pain</t>
   </si>
   <si>
-    <t>177969001</t>
+    <t>111844729</t>
   </si>
   <si>
     <t>3097844</t>
@@ -2946,7 +2946,7 @@
     <t>glaucoma, primary</t>
   </si>
   <si>
-    <t>180908511</t>
+    <t>114695637</t>
   </si>
   <si>
     <t>4042382</t>
@@ -2955,7 +2955,7 @@
     <t>choroideremia</t>
   </si>
   <si>
-    <t>163281481</t>
+    <t>97159359</t>
   </si>
   <si>
     <t>3023185</t>
@@ -2964,7 +2964,7 @@
     <t>endothelial cell density</t>
   </si>
   <si>
-    <t>170294472</t>
+    <t>104093661</t>
   </si>
   <si>
     <t>3772256</t>
@@ -2973,7 +2973,7 @@
     <t>taste bitter</t>
   </si>
   <si>
-    <t>197387824</t>
+    <t>131225958</t>
   </si>
   <si>
     <t>344281</t>
@@ -2982,7 +2982,7 @@
     <t>retinoschisis, juvenile, x-linked</t>
   </si>
   <si>
-    <t>144013871</t>
+    <t>77627701</t>
   </si>
   <si>
     <t>2979502</t>
@@ -2991,7 +2991,7 @@
     <t>grade 3 severe adverse event</t>
   </si>
   <si>
-    <t>154619879</t>
+    <t>88455506</t>
   </si>
   <si>
     <t>does not cause</t>
@@ -3003,7 +3003,7 @@
     <t>hyperglycemia, severe</t>
   </si>
   <si>
-    <t>167437836</t>
+    <t>101231538</t>
   </si>
   <si>
     <t>2546650</t>
@@ -3012,7 +3012,7 @@
     <t>corneal decompensation</t>
   </si>
   <si>
-    <t>131588288</t>
+    <t>65227608</t>
   </si>
   <si>
     <t>2617534</t>
@@ -3021,7 +3021,7 @@
     <t>corneal infiltrates</t>
   </si>
   <si>
-    <t>156557231</t>
+    <t>90400343</t>
   </si>
   <si>
     <t>3724864</t>
@@ -3030,7 +3030,7 @@
     <t>choroidal effusion</t>
   </si>
   <si>
-    <t>179045316</t>
+    <t>112819170</t>
   </si>
   <si>
     <t>3754913</t>
@@ -3039,7 +3039,7 @@
     <t>cornea guttata</t>
   </si>
   <si>
-    <t>167739668</t>
+    <t>101524311</t>
   </si>
   <si>
     <t>3097251</t>
@@ -3048,7 +3048,7 @@
     <t>glaucoma, angle-closure, primary, chronic</t>
   </si>
   <si>
-    <t>174263354</t>
+    <t>108057515</t>
   </si>
   <si>
     <t>2610339</t>
@@ -3057,7 +3057,7 @@
     <t>ocular stinging</t>
   </si>
   <si>
-    <t>186703365</t>
+    <t>120492080</t>
   </si>
   <si>
     <t>3773404</t>
@@ -3069,7 +3069,7 @@
     <t>Physiology</t>
   </si>
   <si>
-    <t>143808515</t>
+    <t>77378285</t>
   </si>
   <si>
     <t>3769667</t>
@@ -3078,13 +3078,13 @@
     <t>blood flow</t>
   </si>
   <si>
-    <t>131581109</t>
-  </si>
-  <si>
-    <t>165390553</t>
-  </si>
-  <si>
-    <t>194724047</t>
+    <t>99175761</t>
+  </si>
+  <si>
+    <t>65220369</t>
+  </si>
+  <si>
+    <t>128501068</t>
   </si>
   <si>
     <t>does not affect</t>
@@ -3096,10 +3096,10 @@
     <t>vision</t>
   </si>
   <si>
-    <t>135956900</t>
-  </si>
-  <si>
-    <t>182017059</t>
+    <t>115820628</t>
+  </si>
+  <si>
+    <t>69611028</t>
   </si>
   <si>
     <t>4048421</t>
@@ -3108,13 +3108,13 @@
     <t>hemodynamics</t>
   </si>
   <si>
-    <t>158040549</t>
-  </si>
-  <si>
-    <t>152100811</t>
-  </si>
-  <si>
-    <t>152099763</t>
+    <t>85674336</t>
+  </si>
+  <si>
+    <t>85675255</t>
+  </si>
+  <si>
+    <t>91916765</t>
   </si>
   <si>
     <t>5648475</t>
@@ -3123,7 +3123,7 @@
     <t>vasodilation</t>
   </si>
   <si>
-    <t>181039960</t>
+    <t>114830708</t>
   </si>
   <si>
     <t>212978</t>
@@ -3132,7 +3132,7 @@
     <t>vascular constriction (function)</t>
   </si>
   <si>
-    <t>181039727</t>
+    <t>114830458</t>
   </si>
   <si>
     <t>2969705</t>
@@ -3141,7 +3141,7 @@
     <t>biological acidification</t>
   </si>
   <si>
-    <t>159062673</t>
+    <t>92888135</t>
   </si>
   <si>
     <t>5239253</t>
@@ -3150,7 +3150,7 @@
     <t>regional blood flow</t>
   </si>
   <si>
-    <t>146328334</t>
+    <t>79885660</t>
   </si>
   <si>
     <t>does not inhibit</t>
@@ -3162,7 +3162,7 @@
     <t>vascular resistance</t>
   </si>
   <si>
-    <t>194724580</t>
+    <t>128501575</t>
   </si>
   <si>
     <t>2984668</t>
@@ -3171,7 +3171,7 @@
     <t>prostaglandin production</t>
   </si>
   <si>
-    <t>163426450</t>
+    <t>97218953</t>
   </si>
   <si>
     <t>4035245</t>
@@ -3180,10 +3180,10 @@
     <t>contrast sensitivity</t>
   </si>
   <si>
-    <t>135958104</t>
-  </si>
-  <si>
-    <t>167020865</t>
+    <t>100819494</t>
+  </si>
+  <si>
+    <t>69612137</t>
   </si>
   <si>
     <t>472142</t>
@@ -3192,10 +3192,10 @@
     <t>carbonate dehydratase activity</t>
   </si>
   <si>
-    <t>146595448</t>
-  </si>
-  <si>
-    <t>183420441</t>
+    <t>80153088</t>
+  </si>
+  <si>
+    <t>117214181</t>
   </si>
   <si>
     <t>2385915</t>
@@ -3204,13 +3204,13 @@
     <t>aqueous humor flow</t>
   </si>
   <si>
-    <t>152897066</t>
-  </si>
-  <si>
-    <t>167659350</t>
-  </si>
-  <si>
-    <t>174515623</t>
+    <t>86498236</t>
+  </si>
+  <si>
+    <t>108336448</t>
+  </si>
+  <si>
+    <t>101458888</t>
   </si>
 </sst>
 </file>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.999069690704346</v>
+        <v>7.000450611114502</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -3406,18 +3406,18 @@
         <v>44</v>
       </c>
       <c r="W2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
         <v>45</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>46</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.93897008895874</v>
+        <v>6.940398216247559</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -3441,12 +3441,12 @@
         <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.916769981384277</v>
+        <v>6.9181342124938965</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -3470,12 +3470,12 @@
         <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.750921726226807</v>
+        <v>6.752254009246826</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -3499,12 +3499,12 @@
         <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.715885162353516</v>
+        <v>6.717266082763672</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.62995719909668</v>
+        <v>6.631465911865234</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -3557,12 +3557,12 @@
         <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.5753865242004395</v>
+        <v>6.581669807434082</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -3586,12 +3586,12 @@
         <v>64</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.559587001800537</v>
+        <v>6.575351238250732</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -3615,12 +3615,12 @@
         <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.555279731750488</v>
+        <v>6.55658483505249</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.527812480926514</v>
+        <v>6.52919340133667</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -3673,12 +3673,12 @@
         <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.371527194976807</v>
+        <v>6.372908115386963</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
@@ -3702,12 +3702,12 @@
         <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.341220378875732</v>
+        <v>6.342601299285889</v>
       </c>
       <c r="B13" t="s">
         <v>78</v>
@@ -3737,12 +3737,12 @@
         <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.321576118469238</v>
+        <v>6.322240829467773</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -3766,12 +3766,12 @@
         <v>84</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.29079008102417</v>
+        <v>6.291961193084717</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -3795,7 +3795,7 @@
         <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
         <v>88</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.264678955078125</v>
+        <v>6.266059875488281</v>
       </c>
       <c r="B16" t="s">
         <v>89</v>
@@ -3830,12 +3830,12 @@
         <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.228920936584473</v>
+        <v>6.230301856994629</v>
       </c>
       <c r="B17" t="s">
         <v>92</v>
@@ -3859,12 +3859,12 @@
         <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.204925537109375</v>
+        <v>6.206306457519531</v>
       </c>
       <c r="B18" t="s">
         <v>95</v>
@@ -3888,12 +3888,12 @@
         <v>97</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.163447856903076</v>
+        <v>6.164734840393066</v>
       </c>
       <c r="B19" t="s">
         <v>98</v>
@@ -3923,12 +3923,12 @@
         <v>101</v>
       </c>
       <c r="K19" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.139987468719482</v>
+        <v>6.141368389129639</v>
       </c>
       <c r="B20" t="s">
         <v>102</v>
@@ -3952,12 +3952,12 @@
         <v>104</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.131507873535156</v>
+        <v>6.1328887939453125</v>
       </c>
       <c r="B21" t="s">
         <v>105</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.093746662139893</v>
+        <v>6.094797611236572</v>
       </c>
       <c r="B22" t="s">
         <v>108</v>
@@ -4010,12 +4010,12 @@
         <v>110</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.988431453704834</v>
+        <v>5.98981237411499</v>
       </c>
       <c r="B23" t="s">
         <v>111</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.963500499725342</v>
+        <v>5.964881420135498</v>
       </c>
       <c r="B24" t="s">
         <v>114</v>
@@ -4068,12 +4068,12 @@
         <v>116</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.910397052764893</v>
+        <v>5.9112749099731445</v>
       </c>
       <c r="B25" t="s">
         <v>117</v>
@@ -4103,12 +4103,12 @@
         <v>120</v>
       </c>
       <c r="K25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.908212661743164</v>
+        <v>5.90959358215332</v>
       </c>
       <c r="B26" t="s">
         <v>121</v>
@@ -4138,30 +4138,30 @@
         <v>124</v>
       </c>
       <c r="K26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L26" t="s">
         <v>125</v>
       </c>
       <c r="M26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N26" t="s">
         <v>126</v>
       </c>
       <c r="O26" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P26" t="s">
         <v>127</v>
       </c>
       <c r="Q26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.900736331939697</v>
+        <v>5.9021172523498535</v>
       </c>
       <c r="B27" t="s">
         <v>128</v>
@@ -4185,12 +4185,12 @@
         <v>130</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.824901103973389</v>
+        <v>5.826282024383545</v>
       </c>
       <c r="B28" t="s">
         <v>131</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.816868305206299</v>
+        <v>5.818249225616455</v>
       </c>
       <c r="B29" t="s">
         <v>134</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.788076400756836</v>
+        <v>5.789457321166992</v>
       </c>
       <c r="B30" t="s">
         <v>137</v>
@@ -4272,18 +4272,18 @@
         <v>139</v>
       </c>
       <c r="I30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J30" t="s">
         <v>140</v>
       </c>
       <c r="K30" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.78562593460083</v>
+        <v>5.787006855010986</v>
       </c>
       <c r="B31" t="s">
         <v>141</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.777280330657959</v>
+        <v>5.778205394744873</v>
       </c>
       <c r="B32" t="s">
         <v>144</v>
@@ -4336,19 +4336,19 @@
         <v>146</v>
       </c>
       <c r="I32" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s">
         <v>147</v>
       </c>
       <c r="K32" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="L32" t="s">
         <v>148</v>
       </c>
       <c r="M32" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N32" t="s">
         <v>149</v>
@@ -4360,18 +4360,18 @@
         <v>150</v>
       </c>
       <c r="Q32" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="R32" t="s">
         <v>151</v>
       </c>
       <c r="S32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.773391246795654</v>
+        <v>5.7747721672058105</v>
       </c>
       <c r="B33" t="s">
         <v>152</v>
@@ -4395,7 +4395,7 @@
         <v>154</v>
       </c>
       <c r="I33" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="J33" t="s">
         <v>155</v>
@@ -4407,12 +4407,12 @@
         <v>156</v>
       </c>
       <c r="M33" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.760092258453369</v>
+        <v>5.761236190795898</v>
       </c>
       <c r="B34" t="s">
         <v>157</v>
@@ -4436,18 +4436,18 @@
         <v>159</v>
       </c>
       <c r="I34" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="J34" t="s">
         <v>160</v>
       </c>
       <c r="K34" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.756523609161377</v>
+        <v>5.757904529571533</v>
       </c>
       <c r="B35" t="s">
         <v>161</v>
@@ -4471,24 +4471,24 @@
         <v>163</v>
       </c>
       <c r="I35" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J35" t="s">
         <v>164</v>
       </c>
       <c r="K35" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L35" t="s">
         <v>165</v>
       </c>
       <c r="M35" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.719125747680664</v>
+        <v>5.72050666809082</v>
       </c>
       <c r="B36" t="s">
         <v>166</v>
@@ -4518,7 +4518,7 @@
         <v>169</v>
       </c>
       <c r="K36" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L36" t="s">
         <v>170</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.718082904815674</v>
+        <v>5.718680381774902</v>
       </c>
       <c r="B37" t="s">
         <v>173</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.705370903015137</v>
+        <v>5.706751823425293</v>
       </c>
       <c r="B38" t="s">
         <v>176</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5.684450149536133</v>
+        <v>5.685831069946289</v>
       </c>
       <c r="B39" t="s">
         <v>179</v>
@@ -4617,48 +4617,48 @@
         <v>181</v>
       </c>
       <c r="I39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J39" t="s">
         <v>182</v>
       </c>
       <c r="K39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L39" t="s">
         <v>183</v>
       </c>
       <c r="M39" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N39" t="s">
         <v>184</v>
       </c>
       <c r="O39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P39" t="s">
         <v>185</v>
       </c>
       <c r="Q39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="R39" t="s">
         <v>186</v>
       </c>
       <c r="S39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="T39" t="s">
         <v>187</v>
       </c>
       <c r="U39" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.669824123382568</v>
+        <v>5.671205043792725</v>
       </c>
       <c r="B40" t="s">
         <v>188</v>
@@ -4682,12 +4682,12 @@
         <v>190</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.612207412719727</v>
+        <v>5.615913391113281</v>
       </c>
       <c r="B41" t="s">
         <v>191</v>
@@ -4711,12 +4711,12 @@
         <v>193</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.554595947265625</v>
+        <v>5.556356906890869</v>
       </c>
       <c r="B42" t="s">
         <v>194</v>
@@ -4740,55 +4740,55 @@
         <v>196</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="J42" t="s">
         <v>197</v>
       </c>
       <c r="K42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L42" t="s">
         <v>198</v>
       </c>
       <c r="M42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N42" t="s">
         <v>199</v>
       </c>
       <c r="O42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P42" t="s">
         <v>200</v>
       </c>
       <c r="Q42" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="R42" t="s">
         <v>201</v>
       </c>
       <c r="S42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T42" t="s">
         <v>202</v>
       </c>
       <c r="U42" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="V42" t="s">
         <v>203</v>
       </c>
       <c r="W42" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="X42" t="s">
         <v>204</v>
       </c>
       <c r="Y42" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="Z42" t="s">
         <v>205</v>
@@ -4800,12 +4800,12 @@
         <v>206</v>
       </c>
       <c r="AC42" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.5046772956848145</v>
+        <v>5.506058216094971</v>
       </c>
       <c r="B43" t="s">
         <v>207</v>
@@ -4829,12 +4829,12 @@
         <v>209</v>
       </c>
       <c r="I43" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.484148979187012</v>
+        <v>5.485976696014404</v>
       </c>
       <c r="B44" t="s">
         <v>210</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.473738193511963</v>
+        <v>5.475119113922119</v>
       </c>
       <c r="B45" t="s">
         <v>213</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.386791229248047</v>
+        <v>5.387612342834473</v>
       </c>
       <c r="B46" t="s">
         <v>218</v>
@@ -4928,12 +4928,12 @@
         <v>221</v>
       </c>
       <c r="K46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.377171516418457</v>
+        <v>5.377406597137451</v>
       </c>
       <c r="B47" t="s">
         <v>222</v>
@@ -4957,18 +4957,18 @@
         <v>224</v>
       </c>
       <c r="I47" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="J47" t="s">
         <v>225</v>
       </c>
       <c r="K47" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.354262351989746</v>
+        <v>5.35322380065918</v>
       </c>
       <c r="B48" t="s">
         <v>226</v>
@@ -4998,12 +4998,12 @@
         <v>229</v>
       </c>
       <c r="K48" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.34016227722168</v>
+        <v>5.341543197631836</v>
       </c>
       <c r="B49" t="s">
         <v>230</v>
@@ -5027,12 +5027,12 @@
         <v>232</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.332620143890381</v>
+        <v>5.334001064300537</v>
       </c>
       <c r="B50" t="s">
         <v>233</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.307162284851074</v>
+        <v>5.3085432052612305</v>
       </c>
       <c r="B51" t="s">
         <v>236</v>
@@ -5085,12 +5085,12 @@
         <v>238</v>
       </c>
       <c r="I51" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.2815470695495605</v>
+        <v>5.282927989959717</v>
       </c>
       <c r="B52" t="s">
         <v>239</v>
@@ -5114,7 +5114,7 @@
         <v>241</v>
       </c>
       <c r="I52" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J52" t="s">
         <v>242</v>
@@ -5125,7 +5125,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.260357856750488</v>
+        <v>5.2617387771606445</v>
       </c>
       <c r="B53" t="s">
         <v>243</v>
@@ -5149,12 +5149,12 @@
         <v>245</v>
       </c>
       <c r="I53" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5.222023963928223</v>
+        <v>5.222586631774902</v>
       </c>
       <c r="B54" t="s">
         <v>246</v>
@@ -5178,7 +5178,7 @@
         <v>248</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J54" t="s">
         <v>249</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.2170891761779785</v>
+        <v>5.217641830444336</v>
       </c>
       <c r="B55" t="s">
         <v>250</v>
@@ -5213,18 +5213,18 @@
         <v>252</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="J55" t="s">
         <v>253</v>
       </c>
       <c r="K55" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.192411422729492</v>
+        <v>5.193792343139648</v>
       </c>
       <c r="B56" t="s">
         <v>254</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.185349464416504</v>
+        <v>5.185839653015137</v>
       </c>
       <c r="B57" t="s">
         <v>257</v>
@@ -5277,18 +5277,18 @@
         <v>259</v>
       </c>
       <c r="I57" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="J57" t="s">
         <v>260</v>
       </c>
       <c r="K57" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.1530280113220215</v>
+        <v>5.154408931732178</v>
       </c>
       <c r="B58" t="s">
         <v>261</v>
@@ -5317,7 +5317,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.143333435058594</v>
+        <v>5.14471435546875</v>
       </c>
       <c r="B59" t="s">
         <v>264</v>
@@ -5341,18 +5341,18 @@
         <v>266</v>
       </c>
       <c r="I59" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J59" t="s">
         <v>267</v>
       </c>
       <c r="K59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.1344194412231445</v>
+        <v>5.1367998123168945</v>
       </c>
       <c r="B60" t="s">
         <v>268</v>
@@ -5376,72 +5376,72 @@
         <v>270</v>
       </c>
       <c r="I60" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J60" t="s">
         <v>271</v>
       </c>
       <c r="K60" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L60" t="s">
         <v>272</v>
       </c>
       <c r="M60" t="s">
+        <v>273</v>
+      </c>
+      <c r="N60" t="s">
+        <v>274</v>
+      </c>
+      <c r="O60" t="s">
+        <v>35</v>
+      </c>
+      <c r="P60" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q60" t="s">
         <v>39</v>
-      </c>
-      <c r="N60" t="s">
-        <v>273</v>
-      </c>
-      <c r="O60" t="s">
-        <v>41</v>
-      </c>
-      <c r="P60" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>275</v>
       </c>
       <c r="R60" t="s">
         <v>276</v>
       </c>
       <c r="S60" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="T60" t="s">
         <v>277</v>
       </c>
       <c r="U60" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="V60" t="s">
         <v>278</v>
       </c>
       <c r="W60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X60" t="s">
         <v>279</v>
       </c>
       <c r="Y60" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Z60" t="s">
         <v>280</v>
       </c>
       <c r="AA60" t="s">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="AB60" t="s">
         <v>281</v>
       </c>
       <c r="AC60" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.132413387298584</v>
+        <v>5.13379430770874</v>
       </c>
       <c r="B61" t="s">
         <v>282</v>
@@ -5465,18 +5465,18 @@
         <v>284</v>
       </c>
       <c r="I61" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J61" t="s">
         <v>285</v>
       </c>
       <c r="K61" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.1075897216796875</v>
+        <v>5.10790491104126</v>
       </c>
       <c r="B62" t="s">
         <v>286</v>
@@ -5500,7 +5500,7 @@
         <v>288</v>
       </c>
       <c r="I62" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J62" t="s">
         <v>289</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.067472457885742</v>
+        <v>5.0711822509765625</v>
       </c>
       <c r="B63" t="s">
         <v>290</v>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.05922269821167</v>
+        <v>5.046085357666016</v>
       </c>
       <c r="B64" t="s">
         <v>293</v>
@@ -5564,13 +5564,13 @@
         <v>295</v>
       </c>
       <c r="I64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J64" t="s">
         <v>296</v>
       </c>
       <c r="K64" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L64" t="s">
         <v>297</v>
@@ -5582,42 +5582,24 @@
         <v>298</v>
       </c>
       <c r="O64" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P64" t="s">
         <v>299</v>
       </c>
       <c r="Q64" t="s">
-        <v>39</v>
-      </c>
-      <c r="R64" t="s">
-        <v>300</v>
-      </c>
-      <c r="S64" t="s">
-        <v>301</v>
-      </c>
-      <c r="T64" t="s">
-        <v>302</v>
-      </c>
-      <c r="U64" t="s">
-        <v>35</v>
-      </c>
-      <c r="V64" t="s">
-        <v>303</v>
-      </c>
-      <c r="W64" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.044704437255859</v>
+        <v>5.0128583908081055</v>
       </c>
       <c r="B65" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C65" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D65" t="s">
         <v>27</v>
@@ -5632,45 +5614,21 @@
         <v>27</v>
       </c>
       <c r="H65" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I65" t="s">
-        <v>31</v>
-      </c>
-      <c r="J65" t="s">
-        <v>307</v>
-      </c>
-      <c r="K65" t="s">
-        <v>39</v>
-      </c>
-      <c r="L65" t="s">
-        <v>308</v>
-      </c>
-      <c r="M65" t="s">
-        <v>171</v>
-      </c>
-      <c r="N65" t="s">
-        <v>309</v>
-      </c>
-      <c r="O65" t="s">
-        <v>45</v>
-      </c>
-      <c r="P65" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5.011477470397949</v>
+        <v>4.996621131896973</v>
       </c>
       <c r="B66" t="s">
-        <v>311</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
         <v>27</v>
@@ -5685,21 +5643,21 @@
         <v>27</v>
       </c>
       <c r="H66" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="I66" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4.99385929107666</v>
+        <v>4.9896721839904785</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="D67" t="s">
         <v>27</v>
@@ -5714,15 +5672,57 @@
         <v>27</v>
       </c>
       <c r="H67" t="s">
+        <v>306</v>
+      </c>
+      <c r="I67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J67" t="s">
+        <v>307</v>
+      </c>
+      <c r="K67" t="s">
+        <v>35</v>
+      </c>
+      <c r="L67" t="s">
+        <v>308</v>
+      </c>
+      <c r="M67" t="s">
+        <v>309</v>
+      </c>
+      <c r="N67" t="s">
+        <v>310</v>
+      </c>
+      <c r="O67" t="s">
+        <v>41</v>
+      </c>
+      <c r="P67" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>39</v>
+      </c>
+      <c r="R67" t="s">
+        <v>312</v>
+      </c>
+      <c r="S67" t="s">
+        <v>41</v>
+      </c>
+      <c r="T67" t="s">
+        <v>313</v>
+      </c>
+      <c r="U67" t="s">
+        <v>37</v>
+      </c>
+      <c r="V67" t="s">
         <v>314</v>
       </c>
-      <c r="I67" t="s">
-        <v>45</v>
+      <c r="W67" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4.956322193145752</v>
+        <v>4.957703113555908</v>
       </c>
       <c r="B68" t="s">
         <v>315</v>
@@ -5746,12 +5746,12 @@
         <v>317</v>
       </c>
       <c r="I68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4.918533802032471</v>
+        <v>4.919914245605469</v>
       </c>
       <c r="B69" t="s">
         <v>318</v>
@@ -5775,19 +5775,19 @@
         <v>320</v>
       </c>
       <c r="I69" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J69" t="s">
         <v>321</v>
       </c>
       <c r="K69" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L69" t="s">
         <v>322</v>
       </c>
       <c r="M69" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N69" t="s">
         <v>323</v>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.898330211639404</v>
+        <v>4.8997111320495605</v>
       </c>
       <c r="B70" t="s">
         <v>324</v>
@@ -5822,18 +5822,18 @@
         <v>326</v>
       </c>
       <c r="I70" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J70" t="s">
         <v>327</v>
       </c>
       <c r="K70" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4.880744934082031</v>
+        <v>4.8821258544921875</v>
       </c>
       <c r="B71" t="s">
         <v>328</v>
@@ -5857,18 +5857,18 @@
         <v>330</v>
       </c>
       <c r="I71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J71" t="s">
         <v>331</v>
       </c>
       <c r="K71" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4.856765270233154</v>
+        <v>4.8600382804870605</v>
       </c>
       <c r="B72" t="s">
         <v>332</v>
@@ -5892,13 +5892,13 @@
         <v>334</v>
       </c>
       <c r="I72" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J72" t="s">
         <v>335</v>
       </c>
       <c r="K72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L72" t="s">
         <v>336</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4.8333892822265625</v>
+        <v>4.834770202636719</v>
       </c>
       <c r="B73" t="s">
         <v>337</v>
@@ -5933,12 +5933,12 @@
         <v>339</v>
       </c>
       <c r="I73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4.812900066375732</v>
+        <v>4.812177658081055</v>
       </c>
       <c r="B74" t="s">
         <v>340</v>
@@ -5962,7 +5962,7 @@
         <v>342</v>
       </c>
       <c r="I74" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J74" t="s">
         <v>343</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4.795782566070557</v>
+        <v>4.797163486480713</v>
       </c>
       <c r="B75" t="s">
         <v>344</v>
@@ -6003,12 +6003,12 @@
         <v>347</v>
       </c>
       <c r="K75" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4.78023099899292</v>
+        <v>4.781611919403076</v>
       </c>
       <c r="B76" t="s">
         <v>348</v>
@@ -6032,18 +6032,18 @@
         <v>350</v>
       </c>
       <c r="I76" t="s">
-        <v>275</v>
+        <v>35</v>
       </c>
       <c r="J76" t="s">
         <v>351</v>
       </c>
       <c r="K76" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4.777963161468506</v>
+        <v>4.779344081878662</v>
       </c>
       <c r="B77" t="s">
         <v>352</v>
@@ -6067,12 +6067,12 @@
         <v>354</v>
       </c>
       <c r="I77" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4.775683403015137</v>
+        <v>4.777064323425293</v>
       </c>
       <c r="B78" t="s">
         <v>355</v>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4.761747360229492</v>
+        <v>4.7583818435668945</v>
       </c>
       <c r="B79" t="s">
         <v>359</v>
@@ -6136,7 +6136,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4.75938081741333</v>
+        <v>4.7583818435668945</v>
       </c>
       <c r="B80" t="s">
         <v>362</v>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4.72481632232666</v>
+        <v>4.726197242736816</v>
       </c>
       <c r="B81" t="s">
         <v>365</v>
@@ -6189,12 +6189,12 @@
         <v>367</v>
       </c>
       <c r="I81" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4.667191505432129</v>
+        <v>4.668572425842285</v>
       </c>
       <c r="B82" t="s">
         <v>368</v>
@@ -6218,12 +6218,12 @@
         <v>370</v>
       </c>
       <c r="I82" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4.6368088722229</v>
+        <v>4.6413254737854</v>
       </c>
       <c r="B83" t="s">
         <v>371</v>
@@ -6259,30 +6259,30 @@
         <v>375</v>
       </c>
       <c r="M83" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N83" t="s">
         <v>376</v>
       </c>
       <c r="O83" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P83" t="s">
         <v>377</v>
       </c>
       <c r="Q83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R83" t="s">
         <v>378</v>
       </c>
       <c r="S83" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4.633650302886963</v>
+        <v>4.635031223297119</v>
       </c>
       <c r="B84" t="s">
         <v>379</v>
@@ -6306,24 +6306,24 @@
         <v>381</v>
       </c>
       <c r="I84" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J84" t="s">
         <v>382</v>
       </c>
       <c r="K84" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L84" t="s">
         <v>383</v>
       </c>
       <c r="M84" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4.620781421661377</v>
+        <v>4.618884563446045</v>
       </c>
       <c r="B85" t="s">
         <v>384</v>
@@ -6352,7 +6352,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4.54614782333374</v>
+        <v>4.5475287437438965</v>
       </c>
       <c r="B86" t="s">
         <v>387</v>
@@ -6376,12 +6376,12 @@
         <v>389</v>
       </c>
       <c r="I86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4.441412448883057</v>
+        <v>4.442793369293213</v>
       </c>
       <c r="B87" t="s">
         <v>390</v>
@@ -6405,7 +6405,7 @@
         <v>392</v>
       </c>
       <c r="I87" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J87" t="s">
         <v>393</v>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4.37199068069458</v>
+        <v>4.367542266845703</v>
       </c>
       <c r="B88" t="s">
         <v>394</v>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4.354262351989746</v>
+        <v>4.343408584594727</v>
       </c>
       <c r="B89" t="s">
         <v>397</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4.309843063354492</v>
+        <v>4.311223983764648</v>
       </c>
       <c r="B90" t="s">
         <v>400</v>
@@ -6504,48 +6504,48 @@
         <v>403</v>
       </c>
       <c r="K90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L90" t="s">
         <v>404</v>
       </c>
       <c r="M90" t="s">
-        <v>39</v>
+        <v>405</v>
       </c>
       <c r="N90" t="s">
+        <v>406</v>
+      </c>
+      <c r="O90" t="s">
         <v>405</v>
-      </c>
-      <c r="O90" t="s">
-        <v>406</v>
       </c>
       <c r="P90" t="s">
         <v>407</v>
       </c>
       <c r="Q90" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="R90" t="s">
         <v>408</v>
       </c>
       <c r="S90" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="T90" t="s">
         <v>409</v>
       </c>
       <c r="U90" t="s">
-        <v>406</v>
+        <v>33</v>
       </c>
       <c r="V90" t="s">
         <v>410</v>
       </c>
       <c r="W90" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4.296270370483398</v>
+        <v>4.297651290893555</v>
       </c>
       <c r="B91" t="s">
         <v>411</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4.260357856750488</v>
+        <v>4.254185199737549</v>
       </c>
       <c r="B92" t="s">
         <v>414</v>
@@ -6603,7 +6603,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4.245117664337158</v>
+        <v>4.238673210144043</v>
       </c>
       <c r="B93" t="s">
         <v>417</v>
@@ -6627,18 +6627,36 @@
         <v>419</v>
       </c>
       <c r="I93" t="s">
-        <v>71</v>
+        <v>41</v>
+      </c>
+      <c r="J93" t="s">
+        <v>420</v>
+      </c>
+      <c r="K93" t="s">
+        <v>33</v>
+      </c>
+      <c r="L93" t="s">
+        <v>421</v>
+      </c>
+      <c r="M93" t="s">
+        <v>422</v>
+      </c>
+      <c r="N93" t="s">
+        <v>423</v>
+      </c>
+      <c r="O93" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4.237292289733887</v>
+        <v>4.238673210144043</v>
       </c>
       <c r="B94" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C94" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D94" t="s">
         <v>27</v>
@@ -6653,33 +6671,15 @@
         <v>27</v>
       </c>
       <c r="H94" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I94" t="s">
-        <v>43</v>
-      </c>
-      <c r="J94" t="s">
-        <v>423</v>
-      </c>
-      <c r="K94" t="s">
-        <v>39</v>
-      </c>
-      <c r="L94" t="s">
-        <v>424</v>
-      </c>
-      <c r="M94" t="s">
-        <v>171</v>
-      </c>
-      <c r="N94" t="s">
-        <v>425</v>
-      </c>
-      <c r="O94" t="s">
-        <v>426</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4.2044997215271</v>
+        <v>4.205880641937256</v>
       </c>
       <c r="B95" t="s">
         <v>427</v>
@@ -6703,7 +6703,7 @@
         <v>429</v>
       </c>
       <c r="I95" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J95" t="s">
         <v>430</v>
@@ -6715,12 +6715,12 @@
         <v>431</v>
       </c>
       <c r="M95" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4.2044997215271</v>
+        <v>4.197280406951904</v>
       </c>
       <c r="B96" t="s">
         <v>432</v>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4.195899486541748</v>
+        <v>4.197280406951904</v>
       </c>
       <c r="B97" t="s">
         <v>435</v>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4.140382289886475</v>
+        <v>4.141763210296631</v>
       </c>
       <c r="B98" t="s">
         <v>439</v>
@@ -6819,7 +6819,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4.130398273468018</v>
+        <v>4.131779193878174</v>
       </c>
       <c r="B99" t="s">
         <v>443</v>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>4.120179176330566</v>
+        <v>4.1215596199035645</v>
       </c>
       <c r="B100" t="s">
         <v>446</v>
@@ -6872,18 +6872,18 @@
         <v>448</v>
       </c>
       <c r="I100" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J100" t="s">
         <v>449</v>
       </c>
       <c r="K100" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>4.098989486694336</v>
+        <v>4.100370407104492</v>
       </c>
       <c r="B101" t="s">
         <v>450</v>
@@ -6918,7 +6918,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.9593276977539062</v>
+        <v>3.9607086181640625</v>
       </c>
       <c r="B102" t="s">
         <v>454</v>
@@ -6947,7 +6947,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>3.928293466567993</v>
+        <v>3.9296743869781494</v>
       </c>
       <c r="B103" t="s">
         <v>457</v>
@@ -6982,7 +6982,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>3.894869565963745</v>
+        <v>3.8962504863739014</v>
       </c>
       <c r="B104" t="s">
         <v>461</v>
@@ -7011,7 +7011,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>3.8586575984954834</v>
+        <v>3.8600382804870605</v>
       </c>
       <c r="B105" t="s">
         <v>464</v>
@@ -7035,12 +7035,12 @@
         <v>466</v>
       </c>
       <c r="I105" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>3.797959566116333</v>
+        <v>3.7993404865264893</v>
       </c>
       <c r="B106" t="s">
         <v>467</v>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>3.797959566116333</v>
+        <v>3.7993404865264893</v>
       </c>
       <c r="B107" t="s">
         <v>470</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>3.7273786067962646</v>
+        <v>3.728759527206421</v>
       </c>
       <c r="B108" t="s">
         <v>473</v>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>3.673020839691162</v>
+        <v>3.6744017601013184</v>
       </c>
       <c r="B109" t="s">
         <v>476</v>
@@ -7151,12 +7151,12 @@
         <v>478</v>
       </c>
       <c r="I109" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>3.5383224487304688</v>
+        <v>3.539703130722046</v>
       </c>
       <c r="B110" t="s">
         <v>479</v>
@@ -7186,12 +7186,12 @@
         <v>482</v>
       </c>
       <c r="K110" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3.400019645690918</v>
+        <v>3.401400566101074</v>
       </c>
       <c r="B111" t="s">
         <v>483</v>
@@ -7215,18 +7215,18 @@
         <v>485</v>
       </c>
       <c r="I111" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="J111" t="s">
         <v>486</v>
       </c>
       <c r="K111" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>3.195899724960327</v>
+        <v>3.1972806453704834</v>
       </c>
       <c r="B112" t="s">
         <v>487</v>
@@ -7250,12 +7250,12 @@
         <v>489</v>
       </c>
       <c r="I112" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>3.195899724960327</v>
+        <v>3.1972806453704834</v>
       </c>
       <c r="B113" t="s">
         <v>490</v>
@@ -7284,7 +7284,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2.797959566116333</v>
+        <v>2.7993404865264893</v>
       </c>
       <c r="B114" t="s">
         <v>493</v>
@@ -7308,12 +7308,12 @@
         <v>495</v>
       </c>
       <c r="I114" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.797959566116333</v>
+        <v>2.7993404865264893</v>
       </c>
       <c r="B115" t="s">
         <v>496</v>
@@ -7337,12 +7337,12 @@
         <v>498</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2.797959566116333</v>
+        <v>2.7993404865264893</v>
       </c>
       <c r="B116" t="s">
         <v>499</v>
@@ -7371,7 +7371,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.49692964553833</v>
+        <v>2.4983105659484863</v>
       </c>
       <c r="B117" t="s">
         <v>502</v>
@@ -7395,12 +7395,12 @@
         <v>504</v>
       </c>
       <c r="I117" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.49692964553833</v>
+        <v>2.4983105659484863</v>
       </c>
       <c r="B118" t="s">
         <v>505</v>
@@ -7424,18 +7424,18 @@
         <v>507</v>
       </c>
       <c r="I118" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J118" t="s">
         <v>508</v>
       </c>
       <c r="K118" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.49692964553833</v>
+        <v>2.4983105659484863</v>
       </c>
       <c r="B119" t="s">
         <v>509</v>
@@ -7459,7 +7459,7 @@
         <v>511</v>
       </c>
       <c r="I119" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -7554,7 +7554,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.811344623565674</v>
+        <v>7.812561511993408</v>
       </c>
       <c r="B2" t="s">
         <v>512</v>
@@ -7578,12 +7578,12 @@
         <v>515</v>
       </c>
       <c r="I2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.774470329284668</v>
+        <v>7.775685787200928</v>
       </c>
       <c r="B3" t="s">
         <v>516</v>
@@ -7607,12 +7607,12 @@
         <v>518</v>
       </c>
       <c r="I3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.1993255615234375</v>
+        <v>7.200706481933594</v>
       </c>
       <c r="B4" t="s">
         <v>519</v>
@@ -7641,7 +7641,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.952991962432861</v>
+        <v>6.95393180847168</v>
       </c>
       <c r="B5" t="s">
         <v>523</v>
@@ -7670,7 +7670,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.894313335418701</v>
+        <v>6.895694255828857</v>
       </c>
       <c r="B6" t="s">
         <v>526</v>
@@ -7699,7 +7699,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.88588285446167</v>
+        <v>6.887263774871826</v>
       </c>
       <c r="B7" t="s">
         <v>529</v>
@@ -7723,12 +7723,12 @@
         <v>531</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.816035747528076</v>
+        <v>6.817416667938232</v>
       </c>
       <c r="B8" t="s">
         <v>532</v>
@@ -7752,12 +7752,12 @@
         <v>534</v>
       </c>
       <c r="I8" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.814596176147461</v>
+        <v>6.815977096557617</v>
       </c>
       <c r="B9" t="s">
         <v>535</v>
@@ -7786,7 +7786,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.651323318481445</v>
+        <v>6.652704238891602</v>
       </c>
       <c r="B10" t="s">
         <v>538</v>
@@ -7816,18 +7816,18 @@
         <v>542</v>
       </c>
       <c r="K10" t="s">
+        <v>543</v>
+      </c>
+      <c r="L10" t="s">
+        <v>544</v>
+      </c>
+      <c r="M10" t="s">
         <v>522</v>
-      </c>
-      <c r="L10" t="s">
-        <v>543</v>
-      </c>
-      <c r="M10" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.627778053283691</v>
+        <v>6.629190921783447</v>
       </c>
       <c r="B11" t="s">
         <v>545</v>
@@ -7851,12 +7851,12 @@
         <v>547</v>
       </c>
       <c r="I11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.393125057220459</v>
+        <v>6.394561290740967</v>
       </c>
       <c r="B12" t="s">
         <v>548</v>
@@ -7880,7 +7880,7 @@
         <v>550</v>
       </c>
       <c r="I12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J12" t="s">
         <v>551</v>
@@ -7891,7 +7891,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.391965389251709</v>
+        <v>6.393346309661865</v>
       </c>
       <c r="B13" t="s">
         <v>552</v>
@@ -7920,7 +7920,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.334012985229492</v>
+        <v>6.335393905639648</v>
       </c>
       <c r="B14" t="s">
         <v>555</v>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.292323112487793</v>
+        <v>6.293355941772461</v>
       </c>
       <c r="B15" t="s">
         <v>558</v>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.99949312210083</v>
+        <v>6.000874042510986</v>
       </c>
       <c r="B16" t="s">
         <v>561</v>
@@ -8002,12 +8002,12 @@
         <v>563</v>
       </c>
       <c r="I16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.762454986572266</v>
+        <v>5.763835906982422</v>
       </c>
       <c r="B17" t="s">
         <v>564</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.734975814819336</v>
+        <v>5.736356735229492</v>
       </c>
       <c r="B18" t="s">
         <v>567</v>
@@ -8065,7 +8065,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.715202331542969</v>
+        <v>5.716583251953125</v>
       </c>
       <c r="B19" t="s">
         <v>570</v>
@@ -8089,12 +8089,12 @@
         <v>572</v>
       </c>
       <c r="I19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.715202331542969</v>
+        <v>5.716583251953125</v>
       </c>
       <c r="B20" t="s">
         <v>573</v>
@@ -8118,18 +8118,18 @@
         <v>575</v>
       </c>
       <c r="I20" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="J20" t="s">
         <v>576</v>
       </c>
       <c r="K20" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.573570251464844</v>
+        <v>5.574951171875</v>
       </c>
       <c r="B21" t="s">
         <v>577</v>
@@ -8158,7 +8158,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.508077144622803</v>
+        <v>5.509458065032959</v>
       </c>
       <c r="B22" t="s">
         <v>580</v>
@@ -8187,7 +8187,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.492125988006592</v>
+        <v>5.493506908416748</v>
       </c>
       <c r="B23" t="s">
         <v>583</v>
@@ -8216,7 +8216,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.3524489402771</v>
+        <v>5.353829860687256</v>
       </c>
       <c r="B24" t="s">
         <v>586</v>
@@ -8240,18 +8240,18 @@
         <v>588</v>
       </c>
       <c r="I24" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="J24" t="s">
         <v>589</v>
       </c>
       <c r="K24" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.259608268737793</v>
+        <v>5.260989189147949</v>
       </c>
       <c r="B25" t="s">
         <v>590</v>
@@ -8275,12 +8275,12 @@
         <v>592</v>
       </c>
       <c r="I25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.252804279327393</v>
+        <v>5.254185199737549</v>
       </c>
       <c r="B26" t="s">
         <v>593</v>
@@ -8304,7 +8304,7 @@
         <v>595</v>
       </c>
       <c r="I26" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J26" t="s">
         <v>596</v>
@@ -8315,7 +8315,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.963797092437744</v>
+        <v>4.9651780128479</v>
       </c>
       <c r="B27" t="s">
         <v>597</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.843282699584961</v>
+        <v>4.844663619995117</v>
       </c>
       <c r="B28" t="s">
         <v>600</v>
@@ -8373,7 +8373,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.795782566070557</v>
+        <v>4.797163486480713</v>
       </c>
       <c r="B29" t="s">
         <v>603</v>
@@ -8408,7 +8408,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.538322448730469</v>
+        <v>4.539703369140625</v>
       </c>
       <c r="B30" t="s">
         <v>608</v>
@@ -8527,7 +8527,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.659493923187256</v>
+        <v>6.661471843719482</v>
       </c>
       <c r="B2" t="s">
         <v>611</v>
@@ -8551,12 +8551,12 @@
         <v>614</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.511534214019775</v>
+        <v>6.51333475112915</v>
       </c>
       <c r="B3" t="s">
         <v>615</v>
@@ -8580,13 +8580,13 @@
         <v>617</v>
       </c>
       <c r="I3" t="s">
-        <v>544</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
         <v>618</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="L3" t="s">
         <v>619</v>
@@ -8598,12 +8598,12 @@
         <v>621</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.149659156799316</v>
+        <v>6.151040077209473</v>
       </c>
       <c r="B4" t="s">
         <v>622</v>
@@ -8627,12 +8627,12 @@
         <v>624</v>
       </c>
       <c r="I4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.081374168395996</v>
+        <v>6.082755088806152</v>
       </c>
       <c r="B5" t="s">
         <v>625</v>
@@ -8656,12 +8656,12 @@
         <v>627</v>
       </c>
       <c r="I5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.033235549926758</v>
+        <v>6.034616470336914</v>
       </c>
       <c r="B6" t="s">
         <v>628</v>
@@ -8685,12 +8685,12 @@
         <v>630</v>
       </c>
       <c r="I6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.000447750091553</v>
+        <v>6.001828670501709</v>
       </c>
       <c r="B7" t="s">
         <v>631</v>
@@ -8714,12 +8714,12 @@
         <v>633</v>
       </c>
       <c r="I7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.963648796081543</v>
+        <v>5.966362476348877</v>
       </c>
       <c r="B8" t="s">
         <v>634</v>
@@ -8743,12 +8743,12 @@
         <v>636</v>
       </c>
       <c r="I8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.947486877441406</v>
+        <v>5.9494829177856445</v>
       </c>
       <c r="B9" t="s">
         <v>637</v>
@@ -8772,12 +8772,12 @@
         <v>639</v>
       </c>
       <c r="I9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.941598892211914</v>
+        <v>5.9451584815979</v>
       </c>
       <c r="B10" t="s">
         <v>640</v>
@@ -8801,12 +8801,12 @@
         <v>642</v>
       </c>
       <c r="I10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.940974235534668</v>
+        <v>5.944847583770752</v>
       </c>
       <c r="B11" t="s">
         <v>643</v>
@@ -8830,12 +8830,12 @@
         <v>645</v>
       </c>
       <c r="I11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.9356303215026855</v>
+        <v>5.937169075012207</v>
       </c>
       <c r="B12" t="s">
         <v>646</v>
@@ -8859,12 +8859,12 @@
         <v>648</v>
       </c>
       <c r="I12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.929738521575928</v>
+        <v>5.931600093841553</v>
       </c>
       <c r="B13" t="s">
         <v>649</v>
@@ -8888,12 +8888,12 @@
         <v>651</v>
       </c>
       <c r="I13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.926681995391846</v>
+        <v>5.928062915802002</v>
       </c>
       <c r="B14" t="s">
         <v>652</v>
@@ -8917,12 +8917,12 @@
         <v>654</v>
       </c>
       <c r="I14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.919683456420898</v>
+        <v>5.921392440795898</v>
       </c>
       <c r="B15" t="s">
         <v>655</v>
@@ -8946,12 +8946,12 @@
         <v>657</v>
       </c>
       <c r="I15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.918368816375732</v>
+        <v>5.921064376831055</v>
       </c>
       <c r="B16" t="s">
         <v>658</v>
@@ -8975,12 +8975,12 @@
         <v>660</v>
       </c>
       <c r="I16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.912237167358398</v>
+        <v>5.912782669067383</v>
       </c>
       <c r="B17" t="s">
         <v>661</v>
@@ -9004,12 +9004,12 @@
         <v>663</v>
       </c>
       <c r="I17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.899363040924072</v>
+        <v>5.9007439613342285</v>
       </c>
       <c r="B18" t="s">
         <v>664</v>
@@ -9033,12 +9033,12 @@
         <v>666</v>
       </c>
       <c r="I18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.897812843322754</v>
+        <v>5.900571823120117</v>
       </c>
       <c r="B19" t="s">
         <v>667</v>
@@ -9062,12 +9062,12 @@
         <v>669</v>
       </c>
       <c r="I19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.891731262207031</v>
+        <v>5.8931121826171875</v>
       </c>
       <c r="B20" t="s">
         <v>670</v>
@@ -9091,12 +9091,12 @@
         <v>672</v>
       </c>
       <c r="I20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.885208606719971</v>
+        <v>5.88694429397583</v>
       </c>
       <c r="B21" t="s">
         <v>673</v>
@@ -9120,12 +9120,12 @@
         <v>675</v>
       </c>
       <c r="I21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.882535934448242</v>
+        <v>5.884274005889893</v>
       </c>
       <c r="B22" t="s">
         <v>676</v>
@@ -9149,12 +9149,12 @@
         <v>678</v>
       </c>
       <c r="I22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.881103992462158</v>
+        <v>5.883559226989746</v>
       </c>
       <c r="B23" t="s">
         <v>679</v>
@@ -9178,18 +9178,18 @@
         <v>681</v>
       </c>
       <c r="I23" t="s">
-        <v>544</v>
+        <v>682</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.877140998840332</v>
+        <v>5.8821258544921875</v>
       </c>
       <c r="B24" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C24" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D24" t="s">
         <v>613</v>
@@ -9204,21 +9204,21 @@
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="I24" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.870209693908691</v>
+        <v>5.878702640533447</v>
       </c>
       <c r="B25" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C25" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D25" t="s">
         <v>613</v>
@@ -9233,15 +9233,15 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I25" t="s">
-        <v>688</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.856954574584961</v>
+        <v>5.858335494995117</v>
       </c>
       <c r="B26" t="s">
         <v>689</v>
@@ -9265,12 +9265,12 @@
         <v>691</v>
       </c>
       <c r="I26" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.7806830406188965</v>
+        <v>5.784542560577393</v>
       </c>
       <c r="B27" t="s">
         <v>692</v>
@@ -9294,12 +9294,12 @@
         <v>694</v>
       </c>
       <c r="I27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.780004501342773</v>
+        <v>5.782063961029053</v>
       </c>
       <c r="B28" t="s">
         <v>695</v>
@@ -9323,18 +9323,18 @@
         <v>697</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J28" t="s">
         <v>698</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.774996757507324</v>
+        <v>5.777977466583252</v>
       </c>
       <c r="B29" t="s">
         <v>699</v>
@@ -9358,12 +9358,12 @@
         <v>701</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.758192539215088</v>
+        <v>5.76218318939209</v>
       </c>
       <c r="B30" t="s">
         <v>702</v>
@@ -9392,7 +9392,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.686981201171875</v>
+        <v>5.6931023597717285</v>
       </c>
       <c r="B31" t="s">
         <v>705</v>
@@ -9416,12 +9416,12 @@
         <v>707</v>
       </c>
       <c r="I31" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.666897773742676</v>
+        <v>5.669744491577148</v>
       </c>
       <c r="B32" t="s">
         <v>708</v>
@@ -9445,13 +9445,13 @@
         <v>710</v>
       </c>
       <c r="I32" t="s">
-        <v>544</v>
+        <v>620</v>
       </c>
       <c r="J32" t="s">
         <v>711</v>
       </c>
       <c r="K32" t="s">
-        <v>620</v>
+        <v>543</v>
       </c>
       <c r="L32" t="s">
         <v>712</v>
@@ -9462,7 +9462,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.650439739227295</v>
+        <v>5.656069278717041</v>
       </c>
       <c r="B33" t="s">
         <v>713</v>
@@ -9491,7 +9491,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.600049018859863</v>
+        <v>5.6014299392700195</v>
       </c>
       <c r="B34" t="s">
         <v>717</v>
@@ -9515,12 +9515,12 @@
         <v>719</v>
       </c>
       <c r="I34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.508077144622803</v>
+        <v>5.52971887588501</v>
       </c>
       <c r="B35" t="s">
         <v>720</v>
@@ -9544,12 +9544,12 @@
         <v>722</v>
       </c>
       <c r="I35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.476022720336914</v>
+        <v>5.513250827789307</v>
       </c>
       <c r="B36" t="s">
         <v>723</v>
@@ -9573,12 +9573,12 @@
         <v>725</v>
       </c>
       <c r="I36" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.446807384490967</v>
+        <v>5.449162006378174</v>
       </c>
       <c r="B37" t="s">
         <v>726</v>
@@ -9602,12 +9602,12 @@
         <v>728</v>
       </c>
       <c r="I37" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.416530609130859</v>
+        <v>5.418955326080322</v>
       </c>
       <c r="B38" t="s">
         <v>729</v>
@@ -9631,12 +9631,12 @@
         <v>731</v>
       </c>
       <c r="I38" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5.411801338195801</v>
+        <v>5.414237976074219</v>
       </c>
       <c r="B39" t="s">
         <v>732</v>
@@ -9665,7 +9665,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.274356365203857</v>
+        <v>5.3446478843688965</v>
       </c>
       <c r="B40" t="s">
         <v>735</v>
@@ -9689,12 +9689,12 @@
         <v>737</v>
       </c>
       <c r="I40" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.171790599822998</v>
+        <v>5.179551601409912</v>
       </c>
       <c r="B41" t="s">
         <v>738</v>
@@ -9723,7 +9723,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.169950485229492</v>
+        <v>5.164828300476074</v>
       </c>
       <c r="B42" t="s">
         <v>741</v>
@@ -9752,7 +9752,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.149176120758057</v>
+        <v>5.162011623382568</v>
       </c>
       <c r="B43" t="s">
         <v>744</v>
@@ -9776,12 +9776,12 @@
         <v>746</v>
       </c>
       <c r="I43" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.128373622894287</v>
+        <v>5.129754543304443</v>
       </c>
       <c r="B44" t="s">
         <v>747</v>
@@ -9805,12 +9805,12 @@
         <v>749</v>
       </c>
       <c r="I44" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.1139302253723145</v>
+        <v>5.116358757019043</v>
       </c>
       <c r="B45" t="s">
         <v>750</v>
@@ -9839,7 +9839,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.102234840393066</v>
+        <v>5.104691982269287</v>
       </c>
       <c r="B46" t="s">
         <v>753</v>
@@ -9863,12 +9863,12 @@
         <v>755</v>
       </c>
       <c r="I46" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.08799409866333</v>
+        <v>5.089375019073486</v>
       </c>
       <c r="B47" t="s">
         <v>756</v>
@@ -9892,12 +9892,12 @@
         <v>758</v>
       </c>
       <c r="I47" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.082390308380127</v>
+        <v>5.084897994995117</v>
       </c>
       <c r="B48" t="s">
         <v>759</v>
@@ -9921,12 +9921,12 @@
         <v>761</v>
       </c>
       <c r="I48" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.04959774017334</v>
+        <v>5.050978660583496</v>
       </c>
       <c r="B49" t="s">
         <v>762</v>
@@ -9950,12 +9950,12 @@
         <v>764</v>
       </c>
       <c r="I49" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.045932769775391</v>
+        <v>5.049760341644287</v>
       </c>
       <c r="B50" t="s">
         <v>765</v>
@@ -9979,12 +9979,12 @@
         <v>767</v>
       </c>
       <c r="I50" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.042236804962158</v>
+        <v>5.046085357666016</v>
       </c>
       <c r="B51" t="s">
         <v>768</v>
@@ -10013,7 +10013,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.030955791473389</v>
+        <v>5.034869194030762</v>
       </c>
       <c r="B52" t="s">
         <v>771</v>
@@ -10042,7 +10042,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.014125347137451</v>
+        <v>5.016824722290039</v>
       </c>
       <c r="B53" t="s">
         <v>774</v>
@@ -10066,12 +10066,12 @@
         <v>776</v>
       </c>
       <c r="I53" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4.894869804382324</v>
+        <v>4.8962507247924805</v>
       </c>
       <c r="B54" t="s">
         <v>777</v>
@@ -10095,12 +10095,12 @@
         <v>779</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.793594837188721</v>
+        <v>4.792776584625244</v>
       </c>
       <c r="B55" t="s">
         <v>780</v>
@@ -10124,7 +10124,7 @@
         <v>782</v>
       </c>
       <c r="I55" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -10219,7 +10219,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.09813117980957</v>
+        <v>7.099523067474365</v>
       </c>
       <c r="B2" t="s">
         <v>783</v>
@@ -10248,7 +10248,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.747715473175049</v>
+        <v>6.749096393585205</v>
       </c>
       <c r="B3" t="s">
         <v>788</v>
@@ -10277,7 +10277,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.728679656982422</v>
+        <v>6.730085849761963</v>
       </c>
       <c r="B4" t="s">
         <v>791</v>
@@ -10306,7 +10306,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.697944164276123</v>
+        <v>6.7018327713012695</v>
       </c>
       <c r="B5" t="s">
         <v>794</v>
@@ -10335,7 +10335,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.652720928192139</v>
+        <v>6.65413236618042</v>
       </c>
       <c r="B6" t="s">
         <v>797</v>
@@ -10371,12 +10371,12 @@
         <v>801</v>
       </c>
       <c r="M6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.589088439941406</v>
+        <v>6.593724250793457</v>
       </c>
       <c r="B7" t="s">
         <v>802</v>
@@ -10405,7 +10405,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.554367542266846</v>
+        <v>6.555748462677002</v>
       </c>
       <c r="B8" t="s">
         <v>806</v>
@@ -10434,7 +10434,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.495232582092285</v>
+        <v>6.496613502502441</v>
       </c>
       <c r="B9" t="s">
         <v>810</v>
@@ -10458,12 +10458,12 @@
         <v>812</v>
       </c>
       <c r="I9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.468251705169678</v>
+        <v>6.469632625579834</v>
       </c>
       <c r="B10" t="s">
         <v>813</v>
@@ -10487,7 +10487,7 @@
         <v>815</v>
       </c>
       <c r="I10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J10" t="s">
         <v>816</v>
@@ -10504,7 +10504,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.439929008483887</v>
+        <v>6.441309928894043</v>
       </c>
       <c r="B11" t="s">
         <v>818</v>
@@ -10533,7 +10533,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.325009346008301</v>
+        <v>6.326390266418457</v>
       </c>
       <c r="B12" t="s">
         <v>821</v>
@@ -10562,7 +10562,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.134119033813477</v>
+        <v>6.1367998123168945</v>
       </c>
       <c r="B13" t="s">
         <v>824</v>
@@ -10591,7 +10591,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.1206955909729</v>
+        <v>6.125164031982422</v>
       </c>
       <c r="B14" t="s">
         <v>827</v>
@@ -10620,7 +10620,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.07568359375</v>
+        <v>6.078551292419434</v>
       </c>
       <c r="B15" t="s">
         <v>830</v>
@@ -10649,7 +10649,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.073270797729492</v>
+        <v>6.076147079467773</v>
       </c>
       <c r="B16" t="s">
         <v>833</v>
@@ -10678,7 +10678,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.061832427978516</v>
+        <v>6.0647478103637695</v>
       </c>
       <c r="B17" t="s">
         <v>836</v>
@@ -10707,7 +10707,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.05922269821167</v>
+        <v>6.062976837158203</v>
       </c>
       <c r="B18" t="s">
         <v>839</v>
@@ -10731,18 +10731,24 @@
         <v>841</v>
       </c>
       <c r="I18" t="s">
-        <v>805</v>
+        <v>787</v>
+      </c>
+      <c r="J18" t="s">
+        <v>842</v>
+      </c>
+      <c r="K18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.059103488922119</v>
+        <v>6.062147617340088</v>
       </c>
       <c r="B19" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C19" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D19" t="s">
         <v>785</v>
@@ -10757,7 +10763,7 @@
         <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="I19" t="s">
         <v>805</v>
@@ -10765,13 +10771,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.058865547180176</v>
+        <v>6.062028884887695</v>
       </c>
       <c r="B20" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C20" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D20" t="s">
         <v>785</v>
@@ -10786,7 +10792,7 @@
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="I20" t="s">
         <v>805</v>
@@ -10794,13 +10800,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.053834915161133</v>
+        <v>6.06179141998291</v>
       </c>
       <c r="B21" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C21" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D21" t="s">
         <v>785</v>
@@ -10815,21 +10821,15 @@
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="I21" t="s">
-        <v>787</v>
-      </c>
-      <c r="J21" t="s">
-        <v>851</v>
-      </c>
-      <c r="K21" t="s">
-        <v>852</v>
+        <v>805</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.027769565582275</v>
+        <v>6.050126552581787</v>
       </c>
       <c r="B22" t="s">
         <v>853</v>
@@ -10853,18 +10853,24 @@
         <v>855</v>
       </c>
       <c r="I22" t="s">
-        <v>544</v>
+        <v>37</v>
+      </c>
+      <c r="J22" t="s">
+        <v>856</v>
+      </c>
+      <c r="K22" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.991779804229736</v>
+        <v>6.029150485992432</v>
       </c>
       <c r="B23" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C23" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D23" t="s">
         <v>785</v>
@@ -10879,21 +10885,21 @@
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="I23" t="s">
-        <v>809</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.925388336181641</v>
+        <v>5.993160724639893</v>
       </c>
       <c r="B24" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C24" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D24" t="s">
         <v>785</v>
@@ -10908,51 +10914,21 @@
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="I24" t="s">
-        <v>787</v>
-      </c>
-      <c r="J24" t="s">
-        <v>862</v>
-      </c>
-      <c r="K24" t="s">
-        <v>852</v>
-      </c>
-      <c r="L24" t="s">
-        <v>863</v>
-      </c>
-      <c r="M24" t="s">
-        <v>544</v>
-      </c>
-      <c r="N24" t="s">
-        <v>864</v>
-      </c>
-      <c r="O24" t="s">
         <v>809</v>
-      </c>
-      <c r="P24" t="s">
-        <v>865</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>541</v>
-      </c>
-      <c r="R24" t="s">
-        <v>866</v>
-      </c>
-      <c r="S24" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.92409086227417</v>
+        <v>5.926769256591797</v>
       </c>
       <c r="B25" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C25" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D25" t="s">
         <v>785</v>
@@ -10967,21 +10943,51 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
+        <v>866</v>
+      </c>
+      <c r="I25" t="s">
+        <v>541</v>
+      </c>
+      <c r="J25" t="s">
+        <v>867</v>
+      </c>
+      <c r="K25" t="s">
+        <v>843</v>
+      </c>
+      <c r="L25" t="s">
+        <v>868</v>
+      </c>
+      <c r="M25" t="s">
+        <v>543</v>
+      </c>
+      <c r="N25" t="s">
         <v>869</v>
       </c>
-      <c r="I25" t="s">
-        <v>805</v>
+      <c r="O25" t="s">
+        <v>606</v>
+      </c>
+      <c r="P25" t="s">
+        <v>870</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>787</v>
+      </c>
+      <c r="R25" t="s">
+        <v>871</v>
+      </c>
+      <c r="S25" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.905169486999512</v>
+        <v>5.925471782684326</v>
       </c>
       <c r="B26" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C26" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D26" t="s">
         <v>785</v>
@@ -10996,7 +11002,7 @@
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="I26" t="s">
         <v>805</v>
@@ -11004,13 +11010,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.895737171173096</v>
+        <v>5.906550407409668</v>
       </c>
       <c r="B27" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C27" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D27" t="s">
         <v>785</v>
@@ -11025,21 +11031,21 @@
         <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I27" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.895564079284668</v>
+        <v>5.897118091583252</v>
       </c>
       <c r="B28" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C28" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="D28" t="s">
         <v>785</v>
@@ -11054,27 +11060,21 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="I28" t="s">
         <v>787</v>
       </c>
-      <c r="J28" t="s">
-        <v>879</v>
-      </c>
-      <c r="K28" t="s">
-        <v>544</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.855625629425049</v>
+        <v>5.896944999694824</v>
       </c>
       <c r="B29" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C29" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D29" t="s">
         <v>785</v>
@@ -11089,21 +11089,27 @@
         <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="I29" t="s">
-        <v>809</v>
+        <v>787</v>
+      </c>
+      <c r="J29" t="s">
+        <v>884</v>
+      </c>
+      <c r="K29" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.802280902862549</v>
+        <v>5.857006549835205</v>
       </c>
       <c r="B30" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C30" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D30" t="s">
         <v>785</v>
@@ -11118,21 +11124,21 @@
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="I30" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.799909591674805</v>
+        <v>5.803661823272705</v>
       </c>
       <c r="B31" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C31" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D31" t="s">
         <v>785</v>
@@ -11147,7 +11153,7 @@
         <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="I31" t="s">
         <v>805</v>
@@ -11155,13 +11161,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.799693584442139</v>
+        <v>5.801290512084961</v>
       </c>
       <c r="B32" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C32" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D32" t="s">
         <v>785</v>
@@ -11176,7 +11182,7 @@
         <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="I32" t="s">
         <v>805</v>
@@ -11184,13 +11190,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.737478733062744</v>
+        <v>5.801074028015137</v>
       </c>
       <c r="B33" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C33" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D33" t="s">
         <v>785</v>
@@ -11205,21 +11211,21 @@
         <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="I33" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.730940341949463</v>
+        <v>5.764777660369873</v>
       </c>
       <c r="B34" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C34" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D34" t="s">
         <v>785</v>
@@ -11234,21 +11240,15 @@
         <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="I34" t="s">
-        <v>45</v>
-      </c>
-      <c r="J34" t="s">
-        <v>898</v>
-      </c>
-      <c r="K34" t="s">
-        <v>899</v>
+        <v>543</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.726611614227295</v>
+        <v>5.7388596534729</v>
       </c>
       <c r="B35" t="s">
         <v>900</v>
@@ -11272,12 +11272,12 @@
         <v>902</v>
       </c>
       <c r="I35" t="s">
-        <v>544</v>
+        <v>809</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.72635555267334</v>
+        <v>5.727992534637451</v>
       </c>
       <c r="B36" t="s">
         <v>903</v>
@@ -11301,12 +11301,12 @@
         <v>905</v>
       </c>
       <c r="I36" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.705908298492432</v>
+        <v>5.707289218902588</v>
       </c>
       <c r="B37" t="s">
         <v>906</v>
@@ -11335,7 +11335,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.564743995666504</v>
+        <v>5.56612491607666</v>
       </c>
       <c r="B38" t="s">
         <v>909</v>
@@ -11364,7 +11364,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5.547309398651123</v>
+        <v>5.548690319061279</v>
       </c>
       <c r="B39" t="s">
         <v>912</v>
@@ -11388,18 +11388,18 @@
         <v>914</v>
       </c>
       <c r="I39" t="s">
-        <v>787</v>
+        <v>843</v>
       </c>
       <c r="J39" t="s">
         <v>915</v>
       </c>
       <c r="K39" t="s">
-        <v>852</v>
+        <v>787</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.532759666442871</v>
+        <v>5.535338401794434</v>
       </c>
       <c r="B40" t="s">
         <v>916</v>
@@ -11428,7 +11428,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.502967834472656</v>
+        <v>5.504348278045654</v>
       </c>
       <c r="B41" t="s">
         <v>919</v>
@@ -11457,7 +11457,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.476022720336914</v>
+        <v>5.490422248840332</v>
       </c>
       <c r="B42" t="s">
         <v>922</v>
@@ -11486,7 +11486,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.461189270019531</v>
+        <v>5.47740364074707</v>
       </c>
       <c r="B43" t="s">
         <v>925</v>
@@ -11515,7 +11515,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.420173645019531</v>
+        <v>5.4215545654296875</v>
       </c>
       <c r="B44" t="s">
         <v>928</v>
@@ -11544,7 +11544,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.3912458419799805</v>
+        <v>5.392626762390137</v>
       </c>
       <c r="B45" t="s">
         <v>931</v>
@@ -11568,12 +11568,12 @@
         <v>933</v>
       </c>
       <c r="I45" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.2921142578125</v>
+        <v>5.293495178222656</v>
       </c>
       <c r="B46" t="s">
         <v>934</v>
@@ -11602,7 +11602,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.2663068771362305</v>
+        <v>5.267687797546387</v>
       </c>
       <c r="B47" t="s">
         <v>937</v>
@@ -11631,7 +11631,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.2260942459106445</v>
+        <v>5.227475166320801</v>
       </c>
       <c r="B48" t="s">
         <v>940</v>
@@ -11660,7 +11660,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.1871256828308105</v>
+        <v>5.188506603240967</v>
       </c>
       <c r="B49" t="s">
         <v>943</v>
@@ -11689,7 +11689,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.1871256828308105</v>
+        <v>5.188506603240967</v>
       </c>
       <c r="B50" t="s">
         <v>946</v>
@@ -11718,7 +11718,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.143333435058594</v>
+        <v>5.14471435546875</v>
       </c>
       <c r="B51" t="s">
         <v>949</v>
@@ -11748,12 +11748,12 @@
         <v>952</v>
       </c>
       <c r="K51" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.07899284362793</v>
+        <v>5.080373764038086</v>
       </c>
       <c r="B52" t="s">
         <v>953</v>
@@ -11782,7 +11782,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.055638313293457</v>
+        <v>5.057019233703613</v>
       </c>
       <c r="B53" t="s">
         <v>956</v>
@@ -11811,7 +11811,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5.044704437255859</v>
+        <v>5.047313690185547</v>
       </c>
       <c r="B54" t="s">
         <v>959</v>
@@ -11835,12 +11835,12 @@
         <v>961</v>
       </c>
       <c r="I54" t="s">
-        <v>809</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.040997505187988</v>
+        <v>5.046085357666016</v>
       </c>
       <c r="B55" t="s">
         <v>962</v>
@@ -11864,12 +11864,12 @@
         <v>964</v>
       </c>
       <c r="I55" t="s">
-        <v>71</v>
+        <v>809</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.040997505187988</v>
+        <v>5.0423784255981445</v>
       </c>
       <c r="B56" t="s">
         <v>965</v>
@@ -11893,24 +11893,24 @@
         <v>967</v>
       </c>
       <c r="I56" t="s">
+        <v>968</v>
+      </c>
+      <c r="J56" t="s">
+        <v>969</v>
+      </c>
+      <c r="K56" t="s">
         <v>606</v>
-      </c>
-      <c r="J56" t="s">
-        <v>968</v>
-      </c>
-      <c r="K56" t="s">
-        <v>969</v>
       </c>
       <c r="L56" t="s">
         <v>970</v>
       </c>
       <c r="M56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.939409255981445</v>
+        <v>4.943914890289307</v>
       </c>
       <c r="B57" t="s">
         <v>971</v>
@@ -11939,7 +11939,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.8753275871276855</v>
+        <v>4.876708507537842</v>
       </c>
       <c r="B58" t="s">
         <v>974</v>
@@ -11968,7 +11968,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4.793594837188721</v>
+        <v>4.824646472930908</v>
       </c>
       <c r="B59" t="s">
         <v>977</v>
@@ -11997,7 +11997,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4.782486915588379</v>
+        <v>4.783867835998535</v>
       </c>
       <c r="B60" t="s">
         <v>980</v>
@@ -12021,12 +12021,12 @@
         <v>982</v>
       </c>
       <c r="I60" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4.78023099899292</v>
+        <v>4.781611919403076</v>
       </c>
       <c r="B61" t="s">
         <v>983</v>
@@ -12055,7 +12055,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4.749782562255859</v>
+        <v>4.751163482666016</v>
       </c>
       <c r="B62" t="s">
         <v>986</v>
@@ -12084,7 +12084,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4.729925632476807</v>
+        <v>4.731306552886963</v>
       </c>
       <c r="B63" t="s">
         <v>989</v>
@@ -12113,7 +12113,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4.568811893463135</v>
+        <v>4.570192337036133</v>
       </c>
       <c r="B64" t="s">
         <v>993</v>
@@ -12142,7 +12142,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4.4160075187683105</v>
+        <v>4.417388439178467</v>
       </c>
       <c r="B65" t="s">
         <v>996</v>
@@ -12171,7 +12171,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4.394556522369385</v>
+        <v>4.395937442779541</v>
       </c>
       <c r="B66" t="s">
         <v>999</v>
@@ -12200,7 +12200,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4.237292289733887</v>
+        <v>4.238673210144043</v>
       </c>
       <c r="B67" t="s">
         <v>1002</v>
@@ -12229,7 +12229,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4.098989486694336</v>
+        <v>4.141763210296631</v>
       </c>
       <c r="B68" t="s">
         <v>1005</v>
@@ -12258,7 +12258,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4.015443801879883</v>
+        <v>4.016824722290039</v>
       </c>
       <c r="B69" t="s">
         <v>1008</v>
@@ -12287,7 +12287,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.098989725112915</v>
+        <v>3.1003706455230713</v>
       </c>
       <c r="B70" t="s">
         <v>1011</v>
@@ -12406,7 +12406,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.2661590576171875</v>
+        <v>6.267539978027344</v>
       </c>
       <c r="B2" t="s">
         <v>1014</v>
@@ -12430,12 +12430,12 @@
         <v>1017</v>
       </c>
       <c r="I2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.223575592041016</v>
+        <v>6.224956035614014</v>
       </c>
       <c r="B3" t="s">
         <v>1018</v>
@@ -12459,13 +12459,13 @@
         <v>1020</v>
       </c>
       <c r="I3" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="J3" t="s">
         <v>1021</v>
       </c>
       <c r="K3" t="s">
-        <v>606</v>
+        <v>543</v>
       </c>
       <c r="L3" t="s">
         <v>1022</v>
@@ -12476,7 +12476,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.170779705047607</v>
+        <v>6.171976566314697</v>
       </c>
       <c r="B4" t="s">
         <v>1024</v>
@@ -12500,18 +12500,18 @@
         <v>1026</v>
       </c>
       <c r="I4" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="J4" t="s">
         <v>1027</v>
       </c>
       <c r="K4" t="s">
-        <v>606</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.0439653396606445</v>
+        <v>6.045346260070801</v>
       </c>
       <c r="B5" t="s">
         <v>1028</v>
@@ -12535,7 +12535,7 @@
         <v>1030</v>
       </c>
       <c r="I5" t="s">
-        <v>606</v>
+        <v>543</v>
       </c>
       <c r="J5" t="s">
         <v>1031</v>
@@ -12547,12 +12547,12 @@
         <v>1032</v>
       </c>
       <c r="M5" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.0151801109313965</v>
+        <v>6.016561031341553</v>
       </c>
       <c r="B6" t="s">
         <v>1033</v>
@@ -12581,7 +12581,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.927165985107422</v>
+        <v>5.928546905517578</v>
       </c>
       <c r="B7" t="s">
         <v>1036</v>
@@ -12610,7 +12610,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.79926061630249</v>
+        <v>5.8006415367126465</v>
       </c>
       <c r="B8" t="s">
         <v>1039</v>
@@ -12639,7 +12639,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.673888683319092</v>
+        <v>5.675269603729248</v>
       </c>
       <c r="B9" t="s">
         <v>1042</v>
@@ -12668,7 +12668,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.642436981201172</v>
+        <v>5.643817901611328</v>
       </c>
       <c r="B10" t="s">
         <v>1046</v>
@@ -12697,7 +12697,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.550392150878906</v>
+        <v>5.5517730712890625</v>
       </c>
       <c r="B11" t="s">
         <v>1049</v>
@@ -12726,7 +12726,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.13840389251709</v>
+        <v>5.139784812927246</v>
       </c>
       <c r="B12" t="s">
         <v>1052</v>
@@ -12750,18 +12750,18 @@
         <v>1054</v>
       </c>
       <c r="I12" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="J12" t="s">
         <v>1055</v>
       </c>
       <c r="K12" t="s">
-        <v>606</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.094624996185303</v>
+        <v>5.1110944747924805</v>
       </c>
       <c r="B13" t="s">
         <v>1056</v>
@@ -12791,12 +12791,12 @@
         <v>1059</v>
       </c>
       <c r="K13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.446319580078125</v>
+        <v>4.447700500488281</v>
       </c>
       <c r="B14" t="s">
         <v>1060</v>
@@ -12820,19 +12820,19 @@
         <v>1062</v>
       </c>
       <c r="I14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J14" t="s">
         <v>1063</v>
       </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>1023</v>
       </c>
       <c r="L14" t="s">
         <v>1064</v>
       </c>
       <c r="M14" t="s">
-        <v>1023</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
